--- a/PlayersParams/ハイドリキャラ能力一覧.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\github\haidream\haikyuu_haidream_public\PlayersParams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782B3C7-256E-4FA6-BAB8-6EDDBBC7EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9A679-3BE0-47B3-B02D-B293548C5330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="1703" windowWidth="36464" windowHeight="23729" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="1703" windowWidth="36464" windowHeight="23729" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot_stat" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9092" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9237" uniqueCount="308">
   <si>
     <t>名前</t>
   </si>
@@ -1937,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1964,8 +1964,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13236,8 +13234,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}" name="Receive" displayName="Receive" ref="A1:T280" totalsRowShown="0">
-  <autoFilter ref="A1:T280" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}" name="Receive" displayName="Receive" ref="A1:T295" totalsRowShown="0">
+  <autoFilter ref="A1:T295" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{F9996509-3F91-4966-A53B-2CD887158A0B}" name="No">
       <calculatedColumnFormula>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -13269,8 +13267,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}" name="Toss" displayName="Toss" ref="A1:T139" totalsRowShown="0">
-  <autoFilter ref="A1:T139" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}" name="Toss" displayName="Toss" ref="A1:T149" totalsRowShown="0">
+  <autoFilter ref="A1:T149" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{1B7EDB19-8140-4A19-963A-F3287DC5772A}" name="No">
       <calculatedColumnFormula>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -13335,8 +13333,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}" name="Block" displayName="Block" ref="A1:T177" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:T177" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}" name="Block" displayName="Block" ref="A1:T187" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:T187" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{4DB7F3D6-F01E-448D-892B-C31C1CACF92C}" name="No" dataDxfId="45">
       <calculatedColumnFormula>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -25021,8 +25019,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27391,25 +27389,46 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
+      <c r="A49">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>218</v>
       </c>
+      <c r="J49" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L49" s="4">
+        <v>34</v>
+      </c>
       <c r="T49" s="4" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
       <c r="U49" s="4"/>
     </row>
@@ -27511,27 +27530,9 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H55">
         <v>1</v>
@@ -27541,7 +27542,7 @@
       </c>
       <c r="T55" s="4" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム二口堅治ICONIC</v>
+        <v/>
       </c>
       <c r="U55" s="4"/>
     </row>
@@ -28186,10 +28187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3E201F-FB00-4E23-B4FD-72701A6D862A}">
-  <dimension ref="A1:T280"/>
+  <dimension ref="A1:T295"/>
   <sheetViews>
     <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+      <selection activeCell="B249" sqref="B249:G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39584,7 +39585,7 @@
       <c r="Q227"/>
       <c r="R227"/>
       <c r="S227"/>
-      <c r="T227" s="21" t="str">
+      <c r="T227" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39634,7 +39635,7 @@
       <c r="Q228"/>
       <c r="R228"/>
       <c r="S228"/>
-      <c r="T228" s="21" t="str">
+      <c r="T228" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39684,7 +39685,7 @@
       <c r="Q229"/>
       <c r="R229"/>
       <c r="S229"/>
-      <c r="T229" s="21" t="str">
+      <c r="T229" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39734,7 +39735,7 @@
       <c r="Q230"/>
       <c r="R230"/>
       <c r="S230"/>
-      <c r="T230" s="21" t="str">
+      <c r="T230" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39784,7 +39785,7 @@
       <c r="Q231"/>
       <c r="R231"/>
       <c r="S231"/>
-      <c r="T231" s="21" t="str">
+      <c r="T231" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39834,7 +39835,7 @@
       <c r="Q232"/>
       <c r="R232"/>
       <c r="S232"/>
-      <c r="T232" s="21" t="str">
+      <c r="T232" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39884,7 +39885,7 @@
       <c r="Q233"/>
       <c r="R233"/>
       <c r="S233"/>
-      <c r="T233" s="21" t="str">
+      <c r="T233" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39934,7 +39935,7 @@
       <c r="Q234"/>
       <c r="R234"/>
       <c r="S234"/>
-      <c r="T234" s="21" t="str">
+      <c r="T234" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -39984,7 +39985,7 @@
       <c r="Q235"/>
       <c r="R235"/>
       <c r="S235"/>
-      <c r="T235" s="21" t="str">
+      <c r="T235" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -40034,7 +40035,7 @@
       <c r="Q236"/>
       <c r="R236"/>
       <c r="S236"/>
-      <c r="T236" s="21" t="str">
+      <c r="T236" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -40084,7 +40085,7 @@
       <c r="Q237"/>
       <c r="R237"/>
       <c r="S237"/>
-      <c r="T237" s="21" t="str">
+      <c r="T237" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -40134,7 +40135,7 @@
       <c r="Q238"/>
       <c r="R238"/>
       <c r="S238"/>
-      <c r="T238" s="21" t="str">
+      <c r="T238" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -40184,7 +40185,7 @@
       <c r="Q239"/>
       <c r="R239"/>
       <c r="S239"/>
-      <c r="T239" s="21" t="str">
+      <c r="T239" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -40234,7 +40235,7 @@
       <c r="Q240"/>
       <c r="R240"/>
       <c r="S240"/>
-      <c r="T240" s="21" t="str">
+      <c r="T240" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -40284,7 +40285,7 @@
       <c r="Q241"/>
       <c r="R241"/>
       <c r="S241"/>
-      <c r="T241" s="21" t="str">
+      <c r="T241" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -40334,7 +40335,7 @@
       <c r="Q242"/>
       <c r="R242"/>
       <c r="S242"/>
-      <c r="T242" s="21" t="str">
+      <c r="T242" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -40384,7 +40385,7 @@
       <c r="Q243"/>
       <c r="R243"/>
       <c r="S243"/>
-      <c r="T243" s="21" t="str">
+      <c r="T243" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
@@ -40434,7 +40435,7 @@
       <c r="Q244"/>
       <c r="R244"/>
       <c r="S244"/>
-      <c r="T244" s="21" t="str">
+      <c r="T244" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
@@ -40484,7 +40485,7 @@
       <c r="Q245"/>
       <c r="R245"/>
       <c r="S245"/>
-      <c r="T245" s="21" t="str">
+      <c r="T245" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
@@ -40534,7 +40535,7 @@
       <c r="Q246"/>
       <c r="R246"/>
       <c r="S246"/>
-      <c r="T246" s="21" t="str">
+      <c r="T246" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
@@ -40584,7 +40585,7 @@
       <c r="Q247"/>
       <c r="R247"/>
       <c r="S247"/>
-      <c r="T247" s="21" t="str">
+      <c r="T247" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
@@ -40634,15 +40635,33 @@
       <c r="Q248"/>
       <c r="R248"/>
       <c r="S248"/>
-      <c r="T248" s="21" t="str">
+      <c r="T248" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A249" t="str">
+      <c r="A249">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B249" t="s">
+        <v>219</v>
+      </c>
+      <c r="C249" t="s">
+        <v>50</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" t="s">
+        <v>25</v>
+      </c>
+      <c r="F249" t="s">
+        <v>49</v>
+      </c>
+      <c r="G249" t="s">
+        <v>72</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -40650,9 +40669,15 @@
       <c r="I249" t="s">
         <v>243</v>
       </c>
-      <c r="J249"/>
-      <c r="K249"/>
-      <c r="L249"/>
+      <c r="J249" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L249">
+        <v>26</v>
+      </c>
       <c r="M249"/>
       <c r="N249"/>
       <c r="O249"/>
@@ -40660,15 +40685,33 @@
       <c r="Q249"/>
       <c r="R249"/>
       <c r="S249"/>
-      <c r="T249" s="21" t="str">
+      <c r="T249" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A250" t="str">
+      <c r="A250">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B250" t="s">
+        <v>219</v>
+      </c>
+      <c r="C250" t="s">
+        <v>50</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" t="s">
+        <v>25</v>
+      </c>
+      <c r="F250" t="s">
+        <v>49</v>
+      </c>
+      <c r="G250" t="s">
+        <v>72</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -40676,9 +40719,15 @@
       <c r="I250" t="s">
         <v>243</v>
       </c>
-      <c r="J250"/>
-      <c r="K250"/>
-      <c r="L250"/>
+      <c r="J250" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L250">
+        <v>26</v>
+      </c>
       <c r="M250"/>
       <c r="N250"/>
       <c r="O250"/>
@@ -40688,13 +40737,31 @@
       <c r="S250"/>
       <c r="T250" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A251" t="str">
+      <c r="A251">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B251" t="s">
+        <v>219</v>
+      </c>
+      <c r="C251" t="s">
+        <v>50</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+      <c r="F251" t="s">
+        <v>49</v>
+      </c>
+      <c r="G251" t="s">
+        <v>72</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -40702,9 +40769,15 @@
       <c r="I251" t="s">
         <v>243</v>
       </c>
-      <c r="J251"/>
-      <c r="K251"/>
-      <c r="L251"/>
+      <c r="J251" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L251">
+        <v>26</v>
+      </c>
       <c r="M251"/>
       <c r="N251"/>
       <c r="O251"/>
@@ -40714,13 +40787,31 @@
       <c r="S251"/>
       <c r="T251" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A252" t="str">
+      <c r="A252">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B252" t="s">
+        <v>219</v>
+      </c>
+      <c r="C252" t="s">
+        <v>50</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" t="s">
+        <v>25</v>
+      </c>
+      <c r="F252" t="s">
+        <v>49</v>
+      </c>
+      <c r="G252" t="s">
+        <v>72</v>
       </c>
       <c r="H252">
         <v>1</v>
@@ -40728,9 +40819,15 @@
       <c r="I252" t="s">
         <v>243</v>
       </c>
-      <c r="J252"/>
-      <c r="K252"/>
-      <c r="L252"/>
+      <c r="J252" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L252">
+        <v>26</v>
+      </c>
       <c r="M252"/>
       <c r="N252"/>
       <c r="O252"/>
@@ -40740,13 +40837,31 @@
       <c r="S252"/>
       <c r="T252" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A253" t="str">
+      <c r="A253">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B253" t="s">
+        <v>219</v>
+      </c>
+      <c r="C253" t="s">
+        <v>50</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+      <c r="F253" t="s">
+        <v>49</v>
+      </c>
+      <c r="G253" t="s">
+        <v>72</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -40754,9 +40869,15 @@
       <c r="I253" t="s">
         <v>243</v>
       </c>
-      <c r="J253"/>
-      <c r="K253"/>
-      <c r="L253"/>
+      <c r="J253" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L253">
+        <v>26</v>
+      </c>
       <c r="M253"/>
       <c r="N253"/>
       <c r="O253"/>
@@ -40766,13 +40887,31 @@
       <c r="S253"/>
       <c r="T253" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A254" t="str">
+      <c r="A254">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B254" t="s">
+        <v>219</v>
+      </c>
+      <c r="C254" t="s">
+        <v>50</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" t="s">
+        <v>25</v>
+      </c>
+      <c r="F254" t="s">
+        <v>49</v>
+      </c>
+      <c r="G254" t="s">
+        <v>72</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -40780,9 +40919,15 @@
       <c r="I254" t="s">
         <v>243</v>
       </c>
-      <c r="J254"/>
-      <c r="K254"/>
-      <c r="L254"/>
+      <c r="J254" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L254">
+        <v>26</v>
+      </c>
       <c r="M254"/>
       <c r="N254"/>
       <c r="O254"/>
@@ -40790,9 +40935,9 @@
       <c r="Q254"/>
       <c r="R254"/>
       <c r="S254"/>
-      <c r="T254" t="str">
+      <c r="T254" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
@@ -40800,6 +40945,12 @@
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
+      <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
       <c r="H255">
         <v>1</v>
       </c>
@@ -40816,7 +40967,7 @@
       <c r="Q255"/>
       <c r="R255"/>
       <c r="S255"/>
-      <c r="T255" t="str">
+      <c r="T255" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -40826,6 +40977,12 @@
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
       <c r="H256">
         <v>1</v>
       </c>
@@ -40842,34 +40999,22 @@
       <c r="Q256"/>
       <c r="R256"/>
       <c r="S256"/>
-      <c r="T256" t="str">
+      <c r="T256" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="A257" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="B257" t="s">
-        <v>219</v>
-      </c>
-      <c r="C257" t="s">
-        <v>50</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" t="s">
-        <v>25</v>
-      </c>
-      <c r="F257" t="s">
-        <v>49</v>
-      </c>
-      <c r="G257" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
       <c r="H257">
         <v>1</v>
       </c>
@@ -40886,34 +41031,22 @@
       <c r="Q257"/>
       <c r="R257"/>
       <c r="S257"/>
-      <c r="T257" t="str">
+      <c r="T257" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="A258" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B258" t="s">
-        <v>151</v>
-      </c>
-      <c r="C258" t="s">
-        <v>50</v>
-      </c>
-      <c r="D258" t="s">
-        <v>28</v>
-      </c>
-      <c r="E258" t="s">
-        <v>25</v>
-      </c>
-      <c r="F258" t="s">
-        <v>49</v>
-      </c>
-      <c r="G258" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
       <c r="H258">
         <v>1</v>
       </c>
@@ -40930,34 +41063,22 @@
       <c r="Q258"/>
       <c r="R258"/>
       <c r="S258"/>
-      <c r="T258" t="str">
+      <c r="T258" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B259" t="s">
-        <v>119</v>
-      </c>
-      <c r="C259" t="s">
-        <v>50</v>
-      </c>
-      <c r="D259" t="s">
-        <v>23</v>
-      </c>
-      <c r="E259" t="s">
-        <v>25</v>
-      </c>
-      <c r="F259" t="s">
-        <v>49</v>
-      </c>
-      <c r="G259" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
       <c r="H259">
         <v>1</v>
       </c>
@@ -40974,34 +41095,22 @@
       <c r="Q259"/>
       <c r="R259"/>
       <c r="S259"/>
-      <c r="T259" t="str">
+      <c r="T259" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="A260" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="B260" t="s">
-        <v>219</v>
-      </c>
-      <c r="C260" t="s">
-        <v>51</v>
-      </c>
-      <c r="D260" t="s">
-        <v>23</v>
-      </c>
-      <c r="E260" t="s">
-        <v>31</v>
-      </c>
-      <c r="F260" t="s">
-        <v>49</v>
-      </c>
-      <c r="G260" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260"/>
       <c r="H260">
         <v>1</v>
       </c>
@@ -41018,34 +41127,22 @@
       <c r="Q260"/>
       <c r="R260"/>
       <c r="S260"/>
-      <c r="T260" t="str">
+      <c r="T260" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>46</v>
-      </c>
-      <c r="B261" t="s">
-        <v>151</v>
-      </c>
-      <c r="C261" t="s">
-        <v>51</v>
-      </c>
-      <c r="D261" t="s">
-        <v>23</v>
-      </c>
-      <c r="E261" t="s">
-        <v>31</v>
-      </c>
-      <c r="F261" t="s">
-        <v>49</v>
-      </c>
-      <c r="G261" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261"/>
       <c r="H261">
         <v>1</v>
       </c>
@@ -41062,34 +41159,22 @@
       <c r="Q261"/>
       <c r="R261"/>
       <c r="S261"/>
-      <c r="T261" t="str">
+      <c r="T261" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>制服小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="A262" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="B262" t="s">
-        <v>219</v>
-      </c>
-      <c r="C262" t="s">
-        <v>52</v>
-      </c>
-      <c r="D262" t="s">
-        <v>23</v>
-      </c>
-      <c r="E262" t="s">
-        <v>25</v>
-      </c>
-      <c r="F262" t="s">
-        <v>49</v>
-      </c>
-      <c r="G262" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B262"/>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
+      <c r="G262"/>
       <c r="H262">
         <v>1</v>
       </c>
@@ -41106,34 +41191,22 @@
       <c r="Q262"/>
       <c r="R262"/>
       <c r="S262"/>
-      <c r="T262" t="str">
+      <c r="T262" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小原豊ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="B263" t="s">
-        <v>219</v>
-      </c>
-      <c r="C263" t="s">
-        <v>53</v>
-      </c>
-      <c r="D263" t="s">
-        <v>23</v>
-      </c>
-      <c r="E263" t="s">
-        <v>25</v>
-      </c>
-      <c r="F263" t="s">
-        <v>49</v>
-      </c>
-      <c r="G263" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263"/>
       <c r="H263">
         <v>1</v>
       </c>
@@ -41152,32 +41225,20 @@
       <c r="S263"/>
       <c r="T263" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム女川太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="A264" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>49</v>
-      </c>
-      <c r="B264" t="s">
-        <v>219</v>
-      </c>
-      <c r="C264" t="s">
-        <v>54</v>
-      </c>
-      <c r="D264" t="s">
-        <v>23</v>
-      </c>
-      <c r="E264" t="s">
-        <v>21</v>
-      </c>
-      <c r="F264" t="s">
-        <v>49</v>
-      </c>
-      <c r="G264" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B264"/>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
+      <c r="G264"/>
       <c r="H264">
         <v>1</v>
       </c>
@@ -41196,31 +41257,13 @@
       <c r="S264"/>
       <c r="T264" s="21" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="A265" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="B265" t="s">
-        <v>219</v>
-      </c>
-      <c r="C265" t="s">
-        <v>55</v>
-      </c>
-      <c r="D265" t="s">
-        <v>23</v>
-      </c>
-      <c r="E265" t="s">
-        <v>26</v>
-      </c>
-      <c r="F265" t="s">
-        <v>49</v>
-      </c>
-      <c r="G265" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H265">
         <v>1</v>
@@ -41238,33 +41281,15 @@
       <c r="Q265"/>
       <c r="R265"/>
       <c r="S265"/>
-      <c r="T265" s="21" t="str">
+      <c r="T265" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="A266" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
-      </c>
-      <c r="B266" t="s">
-        <v>219</v>
-      </c>
-      <c r="C266" t="s">
-        <v>30</v>
-      </c>
-      <c r="D266" t="s">
-        <v>23</v>
-      </c>
-      <c r="E266" t="s">
-        <v>31</v>
-      </c>
-      <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H266">
         <v>1</v>
@@ -41282,33 +41307,15 @@
       <c r="Q266"/>
       <c r="R266"/>
       <c r="S266"/>
-      <c r="T266" s="21" t="str">
+      <c r="T266" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="A267" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="B267" t="s">
-        <v>119</v>
-      </c>
-      <c r="C267" t="s">
-        <v>30</v>
-      </c>
-      <c r="D267" t="s">
-        <v>24</v>
-      </c>
-      <c r="E267" t="s">
-        <v>31</v>
-      </c>
-      <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H267">
         <v>1</v>
@@ -41326,33 +41333,15 @@
       <c r="Q267"/>
       <c r="R267"/>
       <c r="S267"/>
-      <c r="T267" s="21" t="str">
+      <c r="T267" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="A268" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="B268" t="s">
-        <v>219</v>
-      </c>
-      <c r="C268" t="s">
-        <v>32</v>
-      </c>
-      <c r="D268" t="s">
-        <v>28</v>
-      </c>
-      <c r="E268" t="s">
-        <v>25</v>
-      </c>
-      <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="G268" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H268">
         <v>1</v>
@@ -41370,33 +41359,15 @@
       <c r="Q268"/>
       <c r="R268"/>
       <c r="S268"/>
-      <c r="T268" s="21" t="str">
+      <c r="T268" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="A269" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="B269" t="s">
-        <v>119</v>
-      </c>
-      <c r="C269" t="s">
-        <v>32</v>
-      </c>
-      <c r="D269" t="s">
-        <v>23</v>
-      </c>
-      <c r="E269" t="s">
-        <v>25</v>
-      </c>
-      <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H269">
         <v>1</v>
@@ -41414,33 +41385,15 @@
       <c r="Q269"/>
       <c r="R269"/>
       <c r="S269"/>
-      <c r="T269" s="21" t="str">
+      <c r="T269" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="A270" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="B270" t="s">
-        <v>219</v>
-      </c>
-      <c r="C270" t="s">
-        <v>33</v>
-      </c>
-      <c r="D270" t="s">
-        <v>24</v>
-      </c>
-      <c r="E270" t="s">
-        <v>26</v>
-      </c>
-      <c r="F270" t="s">
-        <v>20</v>
-      </c>
-      <c r="G270" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H270">
         <v>1</v>
@@ -41458,33 +41411,15 @@
       <c r="Q270"/>
       <c r="R270"/>
       <c r="S270"/>
-      <c r="T270" s="21" t="str">
+      <c r="T270" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="A271" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
-      </c>
-      <c r="B271" t="s">
-        <v>219</v>
-      </c>
-      <c r="C271" t="s">
-        <v>34</v>
-      </c>
-      <c r="D271" t="s">
-        <v>28</v>
-      </c>
-      <c r="E271" t="s">
-        <v>25</v>
-      </c>
-      <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H271">
         <v>1</v>
@@ -41502,33 +41437,15 @@
       <c r="Q271"/>
       <c r="R271"/>
       <c r="S271"/>
-      <c r="T271" s="21" t="str">
+      <c r="T271" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="A272" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
-      </c>
-      <c r="B272" t="s">
-        <v>219</v>
-      </c>
-      <c r="C272" t="s">
-        <v>35</v>
-      </c>
-      <c r="D272" t="s">
-        <v>23</v>
-      </c>
-      <c r="E272" t="s">
-        <v>25</v>
-      </c>
-      <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H272">
         <v>1</v>
@@ -41546,30 +41463,30 @@
       <c r="Q272"/>
       <c r="R272"/>
       <c r="S272"/>
-      <c r="T272" s="21" t="str">
+      <c r="T272" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B273" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D273" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E273" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G273" t="s">
         <v>72</v>
@@ -41590,30 +41507,30 @@
       <c r="Q273"/>
       <c r="R273"/>
       <c r="S273"/>
-      <c r="T273" s="21" t="str">
+      <c r="T273" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B274" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="C274" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D274" t="s">
         <v>23</v>
       </c>
       <c r="E274" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F274" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
         <v>72</v>
@@ -41634,30 +41551,30 @@
       <c r="Q274"/>
       <c r="R274"/>
       <c r="S274"/>
-      <c r="T274" s="21" t="str">
+      <c r="T274" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B275" t="s">
         <v>219</v>
       </c>
       <c r="C275" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D275" t="s">
         <v>23</v>
       </c>
       <c r="E275" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G275" t="s">
         <v>72</v>
@@ -41678,22 +41595,34 @@
       <c r="Q275"/>
       <c r="R275"/>
       <c r="S275"/>
-      <c r="T275" s="21" t="str">
+      <c r="T275" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム花巻貴大ICONIC</v>
+        <v>ユニフォーム小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A276" t="str">
+      <c r="A276">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276"/>
-      <c r="G276"/>
+        <v>46</v>
+      </c>
+      <c r="B276" t="s">
+        <v>151</v>
+      </c>
+      <c r="C276" t="s">
+        <v>51</v>
+      </c>
+      <c r="D276" t="s">
+        <v>23</v>
+      </c>
+      <c r="E276" t="s">
+        <v>31</v>
+      </c>
+      <c r="F276" t="s">
+        <v>49</v>
+      </c>
+      <c r="G276" t="s">
+        <v>72</v>
+      </c>
       <c r="H276">
         <v>1</v>
       </c>
@@ -41710,22 +41639,34 @@
       <c r="Q276"/>
       <c r="R276"/>
       <c r="S276"/>
-      <c r="T276" s="21" t="str">
+      <c r="T276" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A277" t="str">
+      <c r="A277">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277"/>
+        <v>47</v>
+      </c>
+      <c r="B277" t="s">
+        <v>219</v>
+      </c>
+      <c r="C277" t="s">
+        <v>52</v>
+      </c>
+      <c r="D277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" t="s">
+        <v>25</v>
+      </c>
+      <c r="F277" t="s">
+        <v>49</v>
+      </c>
+      <c r="G277" t="s">
+        <v>72</v>
+      </c>
       <c r="H277">
         <v>1</v>
       </c>
@@ -41744,20 +41685,32 @@
       <c r="S277"/>
       <c r="T277" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム小原豊ICONIC</v>
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A278" t="str">
+      <c r="A278">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
+        <v>48</v>
+      </c>
+      <c r="B278" t="s">
+        <v>219</v>
+      </c>
+      <c r="C278" t="s">
+        <v>53</v>
+      </c>
+      <c r="D278" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278" t="s">
+        <v>25</v>
+      </c>
+      <c r="F278" t="s">
+        <v>49</v>
+      </c>
+      <c r="G278" t="s">
+        <v>72</v>
+      </c>
       <c r="H278">
         <v>1</v>
       </c>
@@ -41774,22 +41727,34 @@
       <c r="Q278"/>
       <c r="R278"/>
       <c r="S278"/>
-      <c r="T278" t="str">
+      <c r="T278" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム女川太郎ICONIC</v>
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A279" t="str">
+      <c r="A279">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
+        <v>49</v>
+      </c>
+      <c r="B279" t="s">
+        <v>219</v>
+      </c>
+      <c r="C279" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279" t="s">
+        <v>49</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
       <c r="H279">
         <v>1</v>
       </c>
@@ -41806,22 +41771,34 @@
       <c r="Q279"/>
       <c r="R279"/>
       <c r="S279"/>
-      <c r="T279" t="str">
+      <c r="T279" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A280" t="str">
+      <c r="A280">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
+        <v>50</v>
+      </c>
+      <c r="B280" t="s">
+        <v>219</v>
+      </c>
+      <c r="C280" t="s">
+        <v>55</v>
+      </c>
+      <c r="D280" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" t="s">
+        <v>26</v>
+      </c>
+      <c r="F280" t="s">
+        <v>49</v>
+      </c>
+      <c r="G280" t="s">
+        <v>72</v>
+      </c>
       <c r="H280">
         <v>1</v>
       </c>
@@ -41838,7 +41815,607 @@
       <c r="Q280"/>
       <c r="R280"/>
       <c r="S280"/>
-      <c r="T280" t="str">
+      <c r="T280" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="B281" t="s">
+        <v>219</v>
+      </c>
+      <c r="C281" t="s">
+        <v>30</v>
+      </c>
+      <c r="D281" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" t="s">
+        <v>31</v>
+      </c>
+      <c r="F281" t="s">
+        <v>20</v>
+      </c>
+      <c r="G281" t="s">
+        <v>72</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281" t="s">
+        <v>243</v>
+      </c>
+      <c r="J281"/>
+      <c r="K281"/>
+      <c r="L281"/>
+      <c r="M281"/>
+      <c r="N281"/>
+      <c r="O281"/>
+      <c r="P281"/>
+      <c r="Q281"/>
+      <c r="R281"/>
+      <c r="S281"/>
+      <c r="T281" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="B282" t="s">
+        <v>119</v>
+      </c>
+      <c r="C282" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282" t="s">
+        <v>31</v>
+      </c>
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+      <c r="G282" t="s">
+        <v>72</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282" t="s">
+        <v>243</v>
+      </c>
+      <c r="J282"/>
+      <c r="K282"/>
+      <c r="L282"/>
+      <c r="M282"/>
+      <c r="N282"/>
+      <c r="O282"/>
+      <c r="P282"/>
+      <c r="Q282"/>
+      <c r="R282"/>
+      <c r="S282"/>
+      <c r="T282" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B283" t="s">
+        <v>219</v>
+      </c>
+      <c r="C283" t="s">
+        <v>32</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" t="s">
+        <v>20</v>
+      </c>
+      <c r="G283" t="s">
+        <v>72</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283" t="s">
+        <v>243</v>
+      </c>
+      <c r="J283"/>
+      <c r="K283"/>
+      <c r="L283"/>
+      <c r="M283"/>
+      <c r="N283"/>
+      <c r="O283"/>
+      <c r="P283"/>
+      <c r="Q283"/>
+      <c r="R283"/>
+      <c r="S283"/>
+      <c r="T283" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="B284" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" t="s">
+        <v>20</v>
+      </c>
+      <c r="G284" t="s">
+        <v>72</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284" t="s">
+        <v>243</v>
+      </c>
+      <c r="J284"/>
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284"/>
+      <c r="N284"/>
+      <c r="O284"/>
+      <c r="P284"/>
+      <c r="Q284"/>
+      <c r="R284"/>
+      <c r="S284"/>
+      <c r="T284" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="B285" t="s">
+        <v>219</v>
+      </c>
+      <c r="C285" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" t="s">
+        <v>24</v>
+      </c>
+      <c r="E285" t="s">
+        <v>26</v>
+      </c>
+      <c r="F285" t="s">
+        <v>20</v>
+      </c>
+      <c r="G285" t="s">
+        <v>72</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285" t="s">
+        <v>243</v>
+      </c>
+      <c r="J285"/>
+      <c r="K285"/>
+      <c r="L285"/>
+      <c r="M285"/>
+      <c r="N285"/>
+      <c r="O285"/>
+      <c r="P285"/>
+      <c r="Q285"/>
+      <c r="R285"/>
+      <c r="S285"/>
+      <c r="T285" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="B286" t="s">
+        <v>219</v>
+      </c>
+      <c r="C286" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" t="s">
+        <v>25</v>
+      </c>
+      <c r="F286" t="s">
+        <v>20</v>
+      </c>
+      <c r="G286" t="s">
+        <v>72</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286" t="s">
+        <v>243</v>
+      </c>
+      <c r="J286"/>
+      <c r="K286"/>
+      <c r="L286"/>
+      <c r="M286"/>
+      <c r="N286"/>
+      <c r="O286"/>
+      <c r="P286"/>
+      <c r="Q286"/>
+      <c r="R286"/>
+      <c r="S286"/>
+      <c r="T286" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B287" t="s">
+        <v>219</v>
+      </c>
+      <c r="C287" t="s">
+        <v>35</v>
+      </c>
+      <c r="D287" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" t="s">
+        <v>20</v>
+      </c>
+      <c r="G287" t="s">
+        <v>72</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287" t="s">
+        <v>243</v>
+      </c>
+      <c r="J287"/>
+      <c r="K287"/>
+      <c r="L287"/>
+      <c r="M287"/>
+      <c r="N287"/>
+      <c r="O287"/>
+      <c r="P287"/>
+      <c r="Q287"/>
+      <c r="R287"/>
+      <c r="S287"/>
+      <c r="T287" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B288" t="s">
+        <v>219</v>
+      </c>
+      <c r="C288" t="s">
+        <v>36</v>
+      </c>
+      <c r="D288" t="s">
+        <v>23</v>
+      </c>
+      <c r="E288" t="s">
+        <v>21</v>
+      </c>
+      <c r="F288" t="s">
+        <v>20</v>
+      </c>
+      <c r="G288" t="s">
+        <v>72</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288" t="s">
+        <v>243</v>
+      </c>
+      <c r="J288"/>
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288"/>
+      <c r="O288"/>
+      <c r="P288"/>
+      <c r="Q288"/>
+      <c r="R288"/>
+      <c r="S288"/>
+      <c r="T288" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B289" t="s">
+        <v>219</v>
+      </c>
+      <c r="C289" t="s">
+        <v>37</v>
+      </c>
+      <c r="D289" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" t="s">
+        <v>26</v>
+      </c>
+      <c r="F289" t="s">
+        <v>20</v>
+      </c>
+      <c r="G289" t="s">
+        <v>72</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289" t="s">
+        <v>243</v>
+      </c>
+      <c r="J289"/>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289"/>
+      <c r="O289"/>
+      <c r="P289"/>
+      <c r="Q289"/>
+      <c r="R289"/>
+      <c r="S289"/>
+      <c r="T289" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B290" t="s">
+        <v>219</v>
+      </c>
+      <c r="C290" t="s">
+        <v>38</v>
+      </c>
+      <c r="D290" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290" t="s">
+        <v>25</v>
+      </c>
+      <c r="F290" t="s">
+        <v>20</v>
+      </c>
+      <c r="G290" t="s">
+        <v>72</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290" t="s">
+        <v>243</v>
+      </c>
+      <c r="J290"/>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290"/>
+      <c r="O290"/>
+      <c r="P290"/>
+      <c r="Q290"/>
+      <c r="R290"/>
+      <c r="S290"/>
+      <c r="T290" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム花巻貴大ICONIC</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A291" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291"/>
+      <c r="G291"/>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>243</v>
+      </c>
+      <c r="J291"/>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291"/>
+      <c r="O291"/>
+      <c r="P291"/>
+      <c r="Q291"/>
+      <c r="R291"/>
+      <c r="S291"/>
+      <c r="T291" s="3" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A292" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+      <c r="G292"/>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292" t="s">
+        <v>243</v>
+      </c>
+      <c r="J292"/>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292"/>
+      <c r="O292"/>
+      <c r="P292"/>
+      <c r="Q292"/>
+      <c r="R292"/>
+      <c r="S292"/>
+      <c r="T292" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A293" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="B293"/>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293"/>
+      <c r="G293"/>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293" t="s">
+        <v>243</v>
+      </c>
+      <c r="J293"/>
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="N293"/>
+      <c r="O293"/>
+      <c r="P293"/>
+      <c r="Q293"/>
+      <c r="R293"/>
+      <c r="S293"/>
+      <c r="T293" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A294" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="B294"/>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294"/>
+      <c r="G294"/>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294" t="s">
+        <v>243</v>
+      </c>
+      <c r="J294"/>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="N294"/>
+      <c r="O294"/>
+      <c r="P294"/>
+      <c r="Q294"/>
+      <c r="R294"/>
+      <c r="S294"/>
+      <c r="T294" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A295" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295"/>
+      <c r="G295"/>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295" t="s">
+        <v>243</v>
+      </c>
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295"/>
+      <c r="O295"/>
+      <c r="P295"/>
+      <c r="Q295"/>
+      <c r="R295"/>
+      <c r="S295"/>
+      <c r="T295" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -41854,10 +42431,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E63DB18-D480-4A69-8DB6-8F594AED2FB2}">
-  <dimension ref="A1:T139"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:G118"/>
+      <selection activeCell="B119" sqref="B119:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47450,7 +48027,7 @@
       <c r="Q110"/>
       <c r="R110"/>
       <c r="S110"/>
-      <c r="T110" s="21" t="str">
+      <c r="T110" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム海信之ICONIC</v>
       </c>
@@ -47500,7 +48077,7 @@
       <c r="Q111"/>
       <c r="R111"/>
       <c r="S111"/>
-      <c r="T111" s="21" t="str">
+      <c r="T111" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム海信之YELL</v>
       </c>
@@ -47550,7 +48127,7 @@
       <c r="Q112"/>
       <c r="R112"/>
       <c r="S112"/>
-      <c r="T112" s="21" t="str">
+      <c r="T112" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム海信之YELL</v>
       </c>
@@ -47600,7 +48177,7 @@
       <c r="Q113"/>
       <c r="R113"/>
       <c r="S113"/>
-      <c r="T113" s="21" t="str">
+      <c r="T113" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -47650,7 +48227,7 @@
       <c r="Q114"/>
       <c r="R114"/>
       <c r="S114"/>
-      <c r="T114" s="21" t="str">
+      <c r="T114" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
@@ -47700,7 +48277,7 @@
       <c r="Q115"/>
       <c r="R115"/>
       <c r="S115"/>
-      <c r="T115" s="21" t="str">
+      <c r="T115" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -47750,7 +48327,7 @@
       <c r="Q116"/>
       <c r="R116"/>
       <c r="S116"/>
-      <c r="T116" s="21" t="str">
+      <c r="T116" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
@@ -47800,7 +48377,7 @@
       <c r="Q117"/>
       <c r="R117"/>
       <c r="S117"/>
-      <c r="T117" s="21" t="str">
+      <c r="T117" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
@@ -47850,15 +48427,33 @@
       <c r="Q118"/>
       <c r="R118"/>
       <c r="S118"/>
-      <c r="T118" s="21" t="str">
+      <c r="T118" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" t="str">
+      <c r="A119">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -47866,9 +48461,15 @@
       <c r="I119" t="s">
         <v>246</v>
       </c>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
+      <c r="J119" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L119">
+        <v>24</v>
+      </c>
       <c r="M119"/>
       <c r="N119"/>
       <c r="O119"/>
@@ -47876,15 +48477,33 @@
       <c r="Q119"/>
       <c r="R119"/>
       <c r="S119"/>
-      <c r="T119" s="21" t="str">
+      <c r="T119" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" t="str">
+      <c r="A120">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>42</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -47892,9 +48511,15 @@
       <c r="I120" t="s">
         <v>246</v>
       </c>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
+      <c r="J120" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L120">
+        <v>32</v>
+      </c>
       <c r="M120"/>
       <c r="N120"/>
       <c r="O120"/>
@@ -47904,31 +48529,13 @@
       <c r="S120"/>
       <c r="T120" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -47948,31 +48555,13 @@
       <c r="S121"/>
       <c r="T121" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H122">
         <v>1</v>
@@ -47992,31 +48581,13 @@
       <c r="S122"/>
       <c r="T122" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H123">
         <v>1</v>
@@ -48036,31 +48607,13 @@
       <c r="S123"/>
       <c r="T123" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H124">
         <v>1</v>
@@ -48080,31 +48633,13 @@
       <c r="S124"/>
       <c r="T124" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>46</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H125">
         <v>1</v>
@@ -48122,33 +48657,15 @@
       <c r="Q125"/>
       <c r="R125"/>
       <c r="S125"/>
-      <c r="T125" t="str">
+      <c r="T125" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>制服小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H126">
         <v>1</v>
@@ -48166,33 +48683,15 @@
       <c r="Q126"/>
       <c r="R126"/>
       <c r="S126"/>
-      <c r="T126" t="str">
+      <c r="T126" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小原豊ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H127">
         <v>1</v>
@@ -48210,33 +48709,15 @@
       <c r="Q127"/>
       <c r="R127"/>
       <c r="S127"/>
-      <c r="T127" t="str">
+      <c r="T127" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム女川太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>49</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H128">
         <v>1</v>
@@ -48254,33 +48735,15 @@
       <c r="Q128"/>
       <c r="R128"/>
       <c r="S128"/>
-      <c r="T128" t="str">
+      <c r="T128" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="B129" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" t="s">
-        <v>55</v>
-      </c>
-      <c r="D129" t="s">
-        <v>23</v>
-      </c>
-      <c r="E129" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" t="s">
-        <v>49</v>
-      </c>
-      <c r="G129" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H129">
         <v>1</v>
@@ -48298,33 +48761,15 @@
       <c r="Q129"/>
       <c r="R129"/>
       <c r="S129"/>
-      <c r="T129" t="str">
+      <c r="T129" s="21" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
-      </c>
-      <c r="B130" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" t="s">
-        <v>31</v>
-      </c>
-      <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H130">
         <v>1</v>
@@ -48342,33 +48787,15 @@
       <c r="Q130"/>
       <c r="R130"/>
       <c r="S130"/>
-      <c r="T130" t="str">
+      <c r="T130" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="B131" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" t="s">
-        <v>31</v>
-      </c>
-      <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H131">
         <v>1</v>
@@ -48386,32 +48813,32 @@
       <c r="Q131"/>
       <c r="R131"/>
       <c r="S131"/>
-      <c r="T131" t="str">
+      <c r="T131" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" s="4" t="s">
+      <c r="F132" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H132">
@@ -48420,32 +48847,42 @@
       <c r="I132" t="s">
         <v>246</v>
       </c>
-      <c r="T132" s="21" t="str">
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="B133" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" s="4" t="s">
+      <c r="F133" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H133">
@@ -48454,32 +48891,42 @@
       <c r="I133" t="s">
         <v>246</v>
       </c>
-      <c r="T133" s="21" t="str">
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="B134" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="4" t="s">
+      <c r="C134" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H134">
@@ -48488,30 +48935,40 @@
       <c r="I134" t="s">
         <v>246</v>
       </c>
-      <c r="T134" s="21" t="str">
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v>ユニフォーム小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>72</v>
@@ -48522,21 +48979,31 @@
       <c r="I135" t="s">
         <v>246</v>
       </c>
-      <c r="T135" s="21" t="str">
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v>制服小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>23</v>
@@ -48545,7 +49012,7 @@
         <v>25</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>72</v>
@@ -48556,30 +49023,40 @@
       <c r="I136" t="s">
         <v>246</v>
       </c>
-      <c r="T136" s="21" t="str">
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v>ユニフォーム小原豊ICONIC</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>72</v>
@@ -48590,30 +49067,40 @@
       <c r="I137" t="s">
         <v>246</v>
       </c>
-      <c r="T137" s="21" t="str">
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>ユニフォーム女川太郎ICONIC</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>72</v>
@@ -48624,32 +49111,42 @@
       <c r="I138" t="s">
         <v>246</v>
       </c>
-      <c r="T138" s="21" t="str">
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
-      </c>
-      <c r="B139" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" t="s">
         <v>219</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="C139" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" t="s">
         <v>23</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="4" t="s">
+      <c r="E139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139" t="s">
         <v>72</v>
       </c>
       <c r="H139">
@@ -48658,7 +49155,377 @@
       <c r="I139" t="s">
         <v>246</v>
       </c>
-      <c r="T139" s="21" t="str">
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140" t="s">
+        <v>246</v>
+      </c>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="B141" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>72</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>246</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>246</v>
+      </c>
+      <c r="T142" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
+        <v>246</v>
+      </c>
+      <c r="T143" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>プール掃除岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
+        <v>246</v>
+      </c>
+      <c r="T144" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145" t="s">
+        <v>246</v>
+      </c>
+      <c r="T145" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>246</v>
+      </c>
+      <c r="T146" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" t="s">
+        <v>246</v>
+      </c>
+      <c r="T147" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148" t="s">
+        <v>246</v>
+      </c>
+      <c r="T148" s="3" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149" t="s">
+        <v>246</v>
+      </c>
+      <c r="T149" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -48677,7 +49544,7 @@
   <dimension ref="A1:W204"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170:G174"/>
+      <selection activeCell="B175" sqref="B175:G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55722,7 +56589,7 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="24">
+      <c r="A161" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
@@ -55759,13 +56626,13 @@
       <c r="L161" s="3">
         <v>28</v>
       </c>
-      <c r="T161" s="25" t="str">
+      <c r="T161" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="24">
+      <c r="A162" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
@@ -55802,13 +56669,13 @@
       <c r="L162" s="3">
         <v>28</v>
       </c>
-      <c r="T162" s="25" t="str">
+      <c r="T162" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="24">
+      <c r="A163" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
@@ -55845,13 +56712,13 @@
       <c r="L163" s="3">
         <v>41</v>
       </c>
-      <c r="T163" s="25" t="str">
+      <c r="T163" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="24">
+      <c r="A164" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
@@ -55888,13 +56755,13 @@
       <c r="L164" s="3">
         <v>26</v>
       </c>
-      <c r="T164" s="25" t="str">
+      <c r="T164" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="24">
+      <c r="A165" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
@@ -55931,13 +56798,13 @@
       <c r="L165" s="3">
         <v>28</v>
       </c>
-      <c r="T165" s="25" t="str">
+      <c r="T165" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="24">
+      <c r="A166" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
@@ -55974,13 +56841,13 @@
       <c r="L166" s="3">
         <v>28</v>
       </c>
-      <c r="T166" s="25" t="str">
+      <c r="T166" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="24">
+      <c r="A167" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
@@ -56017,13 +56884,13 @@
       <c r="L167" s="3">
         <v>41</v>
       </c>
-      <c r="T167" s="25" t="str">
+      <c r="T167" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="24">
+      <c r="A168" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
@@ -56060,13 +56927,13 @@
       <c r="L168" s="3">
         <v>26</v>
       </c>
-      <c r="T168" s="25" t="str">
+      <c r="T168" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A169" s="24">
+      <c r="A169" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
@@ -56106,13 +56973,13 @@
       <c r="N169" s="3">
         <v>53</v>
       </c>
-      <c r="T169" s="25" t="str">
+      <c r="T169" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="24">
+      <c r="A170" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
@@ -56149,13 +57016,13 @@
       <c r="L170" s="3">
         <v>31</v>
       </c>
-      <c r="T170" s="25" t="str">
+      <c r="T170" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="24">
+      <c r="A171" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
@@ -56192,13 +57059,13 @@
       <c r="L171" s="3">
         <v>35</v>
       </c>
-      <c r="T171" s="25" t="str">
+      <c r="T171" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="24">
+      <c r="A172" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
@@ -56235,13 +57102,13 @@
       <c r="L172" s="3">
         <v>41</v>
       </c>
-      <c r="T172" s="25" t="str">
+      <c r="T172" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="24">
+      <c r="A173" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
@@ -56278,13 +57145,13 @@
       <c r="L173" s="3">
         <v>26</v>
       </c>
-      <c r="T173" s="25" t="str">
+      <c r="T173" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A174" s="24">
+      <c r="A174" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
@@ -56330,223 +57197,343 @@
       <c r="O174" s="3">
         <v>7</v>
       </c>
-      <c r="T174" s="25" t="str">
+      <c r="T174" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A175" s="24" t="str">
+      <c r="A175" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L175" s="3">
+        <v>36</v>
+      </c>
+      <c r="T175" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L176" s="3">
+        <v>36</v>
+      </c>
+      <c r="T176" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L177" s="3">
+        <v>32</v>
+      </c>
+      <c r="T177" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L178" s="3">
+        <v>41</v>
+      </c>
+      <c r="T178" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L179" s="3">
+        <v>43</v>
+      </c>
+      <c r="N179" s="3">
+        <v>53</v>
+      </c>
+      <c r="T179" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="7" t="s">
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="I180" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T175" s="25" t="str">
+      <c r="T180" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="24" t="str">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="7" t="s">
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T176" s="25" t="str">
+      <c r="T181" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="24" t="str">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="I177" s="7" t="s">
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T177" s="25" t="str">
+      <c r="T182" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A178" s="24" t="str">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H178" s="3">
-        <v>1</v>
-      </c>
-      <c r="I178" s="7" t="s">
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T178" s="25" t="str">
+      <c r="T183" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A179" s="24" t="str">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H179" s="3">
-        <v>1</v>
-      </c>
-      <c r="I179" s="7" t="s">
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T179" s="25" t="str">
+      <c r="T184" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="24" t="str">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H180" s="3">
-        <v>1</v>
-      </c>
-      <c r="I180" s="7" t="s">
+      <c r="H185" s="3">
+        <v>1</v>
+      </c>
+      <c r="I185" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T180" s="25" t="str">
+      <c r="T185" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A181" s="24" t="str">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H181" s="3">
-        <v>1</v>
-      </c>
-      <c r="I181" s="7" t="s">
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T181" s="25" t="str">
+      <c r="T186" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A182" s="24" t="str">
-        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H182" s="3">
-        <v>1</v>
-      </c>
-      <c r="I182" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T182" s="25" t="str">
-        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A183" s="24" t="str">
-        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H183" s="3">
-        <v>1</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T183" s="25" t="str">
-        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A184" s="24" t="str">
-        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H184" s="3">
-        <v>1</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T184" s="25" t="str">
-        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A185" s="24" t="str">
-        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H185" s="3">
-        <v>1</v>
-      </c>
-      <c r="I185" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T185" s="25" t="str">
-        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="24">
-        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H186" s="3">
-        <v>1</v>
-      </c>
-      <c r="I186" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="T186" s="25" t="str">
-        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム二口堅治ICONIC</v>
-      </c>
-    </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A187" s="24">
+      <c r="A187" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>43</v>
       </c>
@@ -56574,13 +57561,13 @@
       <c r="I187" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T187" s="25" t="str">
+      <c r="T187" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" s="24">
+      <c r="A188" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>44</v>
       </c>
@@ -56608,13 +57595,13 @@
       <c r="I188" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T188" s="25" t="str">
+      <c r="T188" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="24">
+      <c r="A189" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>45</v>
       </c>
@@ -56642,13 +57629,13 @@
       <c r="I189" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T189" s="25" t="str">
+      <c r="T189" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="24">
+      <c r="A190" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>46</v>
       </c>
@@ -56676,13 +57663,13 @@
       <c r="I190" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T190" s="25" t="str">
+      <c r="T190" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>制服小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="24">
+      <c r="A191" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>47</v>
       </c>
@@ -56710,13 +57697,13 @@
       <c r="I191" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T191" s="25" t="str">
+      <c r="T191" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム小原豊ICONIC</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="24">
+      <c r="A192" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>48</v>
       </c>
@@ -56744,13 +57731,13 @@
       <c r="I192" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T192" s="25" t="str">
+      <c r="T192" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム女川太郎ICONIC</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="24">
+      <c r="A193" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>49</v>
       </c>
@@ -56778,13 +57765,13 @@
       <c r="I193" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T193" s="25" t="str">
+      <c r="T193" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A194" s="24">
+      <c r="A194" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>50</v>
       </c>
@@ -56812,13 +57799,13 @@
       <c r="I194" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T194" s="25" t="str">
+      <c r="T194" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" s="24">
+      <c r="A195" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>51</v>
       </c>
@@ -56846,13 +57833,13 @@
       <c r="I195" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T195" s="25" t="str">
+      <c r="T195" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A196" s="24">
+      <c r="A196" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>52</v>
       </c>
@@ -56880,13 +57867,13 @@
       <c r="I196" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T196" s="25" t="str">
+      <c r="T196" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A197" s="24">
+      <c r="A197" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>53</v>
       </c>
@@ -56914,13 +57901,13 @@
       <c r="I197" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T197" s="25" t="str">
+      <c r="T197" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム岩泉一ICONIC</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A198" s="24">
+      <c r="A198" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>54</v>
       </c>
@@ -56948,13 +57935,13 @@
       <c r="I198" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T198" s="25" t="str">
+      <c r="T198" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除岩泉一ICONIC</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="24">
+      <c r="A199" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>55</v>
       </c>
@@ -56982,13 +57969,13 @@
       <c r="I199" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T199" s="25" t="str">
+      <c r="T199" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム金田一勇太郎ICONIC</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="24">
+      <c r="A200" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>56</v>
       </c>
@@ -57016,13 +58003,13 @@
       <c r="I200" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T200" s="25" t="str">
+      <c r="T200" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム京谷賢太郎ICONIC</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="24">
+      <c r="A201" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>57</v>
       </c>
@@ -57050,13 +58037,13 @@
       <c r="I201" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T201" s="25" t="str">
+      <c r="T201" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム国見英ICONIC</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A202" s="24">
+      <c r="A202" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>58</v>
       </c>
@@ -57084,7 +58071,7 @@
       <c r="I202" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T202" s="25" t="str">
+      <c r="T202" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム渡親治ICONIC</v>
       </c>
@@ -57168,10 +58155,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6570FE42-5873-4E17-8625-5C59F305B378}">
-  <dimension ref="A1:AJ177"/>
+  <dimension ref="A1:AJ187"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:G155"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156:G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63336,7 +64323,7 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A136" s="22">
+      <c r="A136" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>37</v>
       </c>
@@ -63364,29 +64351,25 @@
       <c r="I136" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J136" s="21" t="s">
+      <c r="J136" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K136" s="21" t="s">
+      <c r="K136" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L136" s="21">
+      <c r="L136" s="3">
         <v>27</v>
       </c>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="23"/>
-      <c r="P136" s="23"/>
-      <c r="Q136" s="23"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="22" t="str">
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="T136" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム海信之ICONIC</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A137" s="22">
+      <c r="A137" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>38</v>
       </c>
@@ -63423,20 +64406,16 @@
       <c r="L137" s="3">
         <v>33</v>
       </c>
-      <c r="M137" s="21"/>
-      <c r="N137" s="21"/>
-      <c r="O137" s="23"/>
-      <c r="P137" s="23"/>
-      <c r="Q137" s="23"/>
-      <c r="R137" s="21"/>
-      <c r="S137" s="21"/>
-      <c r="T137" s="22" t="str">
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="T137" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム海信之YELL</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A138" s="22">
+      <c r="A138" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>38</v>
       </c>
@@ -63464,48 +64443,44 @@
       <c r="I138" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J138" s="21" t="s">
+      <c r="J138" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K138" s="21" t="s">
+      <c r="K138" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L138" s="21">
+      <c r="L138" s="3">
         <v>33</v>
       </c>
-      <c r="M138" s="21"/>
-      <c r="N138" s="21"/>
-      <c r="O138" s="23"/>
-      <c r="P138" s="23"/>
-      <c r="Q138" s="23"/>
-      <c r="R138" s="21"/>
-      <c r="S138" s="21"/>
-      <c r="T138" s="22" t="str">
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="T138" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム海信之YELL</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A139" s="22">
+      <c r="A139" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B139" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E139" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="21" t="s">
+      <c r="F139" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G139" s="21" t="s">
+      <c r="G139" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H139" s="3">
@@ -63514,48 +64489,44 @@
       <c r="I139" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J139" s="21" t="s">
+      <c r="J139" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K139" s="21" t="s">
+      <c r="K139" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L139" s="21">
+      <c r="L139" s="3">
         <v>41</v>
       </c>
-      <c r="M139" s="21"/>
-      <c r="N139" s="21"/>
-      <c r="O139" s="23"/>
-      <c r="P139" s="23"/>
-      <c r="Q139" s="23"/>
-      <c r="R139" s="21"/>
-      <c r="S139" s="21"/>
-      <c r="T139" s="22" t="str">
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="T139" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A140" s="22">
+      <c r="A140" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="F140" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G140" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H140" s="3">
@@ -63564,48 +64535,44 @@
       <c r="I140" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J140" s="21" t="s">
+      <c r="J140" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K140" s="21" t="s">
+      <c r="K140" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L140" s="21">
+      <c r="L140" s="3">
         <v>41</v>
       </c>
-      <c r="M140" s="21"/>
-      <c r="N140" s="21"/>
-      <c r="O140" s="23"/>
-      <c r="P140" s="23"/>
-      <c r="Q140" s="23"/>
-      <c r="R140" s="21"/>
-      <c r="S140" s="21"/>
-      <c r="T140" s="22" t="str">
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="T140" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A141" s="22">
+      <c r="A141" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G141" s="21" t="s">
+      <c r="G141" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H141" s="3">
@@ -63614,48 +64581,44 @@
       <c r="I141" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J141" s="21" t="s">
+      <c r="J141" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K141" s="21" t="s">
+      <c r="K141" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L141" s="21">
+      <c r="L141" s="3">
         <v>47</v>
       </c>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
-      <c r="O141" s="23"/>
-      <c r="P141" s="23"/>
-      <c r="Q141" s="23"/>
-      <c r="R141" s="21"/>
-      <c r="S141" s="21"/>
-      <c r="T141" s="22" t="str">
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="T141" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A142" s="22">
+      <c r="A142" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F142" s="21" t="s">
+      <c r="F142" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G142" s="21" t="s">
+      <c r="G142" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H142" s="3">
@@ -63664,48 +64627,44 @@
       <c r="I142" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J142" s="21" t="s">
+      <c r="J142" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K142" s="21" t="s">
+      <c r="K142" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L142" s="21">
+      <c r="L142" s="3">
         <v>34</v>
       </c>
-      <c r="M142" s="21"/>
-      <c r="N142" s="21"/>
-      <c r="O142" s="23"/>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="21"/>
-      <c r="S142" s="21"/>
-      <c r="T142" s="22" t="str">
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="T142" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A143" s="22">
+      <c r="A143" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="B143" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F143" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G143" s="21" t="s">
+      <c r="G143" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H143" s="3">
@@ -63714,48 +64673,44 @@
       <c r="I143" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J143" s="21" t="s">
+      <c r="J143" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K143" s="21" t="s">
+      <c r="K143" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L143" s="21">
+      <c r="L143" s="3">
         <v>37</v>
       </c>
-      <c r="M143" s="21"/>
-      <c r="N143" s="21"/>
-      <c r="O143" s="23"/>
-      <c r="P143" s="23"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="21"/>
-      <c r="S143" s="21"/>
-      <c r="T143" s="22" t="str">
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="T143" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A144" s="22">
+      <c r="A144" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="D144" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E144" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="F144" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G144" s="21" t="s">
+      <c r="G144" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H144" s="3">
@@ -63764,54 +64719,52 @@
       <c r="I144" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J144" s="21" t="s">
+      <c r="J144" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K144" s="21" t="s">
+      <c r="K144" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L144" s="21">
+      <c r="L144" s="3">
         <v>51</v>
       </c>
-      <c r="M144" s="21">
+      <c r="M144" s="3">
         <v>5</v>
       </c>
-      <c r="N144" s="21">
+      <c r="N144" s="3">
         <v>61</v>
       </c>
-      <c r="O144" s="23">
+      <c r="O144" s="9">
         <v>7</v>
       </c>
-      <c r="P144" s="23"/>
-      <c r="Q144" s="23"/>
-      <c r="R144" s="21"/>
-      <c r="S144" s="21"/>
-      <c r="T144" s="22" t="str">
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="T144" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム青根高伸ICONIC</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" s="22">
+      <c r="A145" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="21" t="s">
+      <c r="D145" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E145" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="21" t="s">
+      <c r="F145" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G145" s="21" t="s">
+      <c r="G145" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H145" s="3">
@@ -63820,48 +64773,44 @@
       <c r="I145" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J145" s="21" t="s">
+      <c r="J145" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K145" s="21" t="s">
+      <c r="K145" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L145" s="21">
+      <c r="L145" s="3">
         <v>41</v>
       </c>
-      <c r="M145" s="21"/>
-      <c r="N145" s="21"/>
-      <c r="O145" s="23"/>
-      <c r="P145" s="23"/>
-      <c r="Q145" s="23"/>
-      <c r="R145" s="21"/>
-      <c r="S145" s="21"/>
-      <c r="T145" s="22" t="str">
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="T145" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A146" s="22">
+      <c r="A146" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F146" s="21" t="s">
+      <c r="F146" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G146" s="21" t="s">
+      <c r="G146" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H146" s="3">
@@ -63870,48 +64819,44 @@
       <c r="I146" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J146" s="21" t="s">
+      <c r="J146" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K146" s="21" t="s">
+      <c r="K146" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L146" s="21">
+      <c r="L146" s="3">
         <v>41</v>
       </c>
-      <c r="M146" s="21"/>
-      <c r="N146" s="21"/>
-      <c r="O146" s="23"/>
-      <c r="P146" s="23"/>
-      <c r="Q146" s="23"/>
-      <c r="R146" s="21"/>
-      <c r="S146" s="21"/>
-      <c r="T146" s="22" t="str">
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="T146" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" s="22">
+      <c r="A147" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E147" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="F147" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G147" s="21" t="s">
+      <c r="G147" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H147" s="3">
@@ -63920,48 +64865,44 @@
       <c r="I147" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J147" s="21" t="s">
+      <c r="J147" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K147" s="21" t="s">
+      <c r="K147" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L147" s="21">
+      <c r="L147" s="3">
         <v>47</v>
       </c>
-      <c r="M147" s="21"/>
-      <c r="N147" s="21"/>
-      <c r="O147" s="23"/>
-      <c r="P147" s="23"/>
-      <c r="Q147" s="23"/>
-      <c r="R147" s="21"/>
-      <c r="S147" s="21"/>
-      <c r="T147" s="22" t="str">
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+      <c r="T147" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" s="22">
+      <c r="A148" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E148" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F148" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G148" s="21" t="s">
+      <c r="G148" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H148" s="3">
@@ -63970,48 +64911,44 @@
       <c r="I148" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J148" s="21" t="s">
+      <c r="J148" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K148" s="21" t="s">
+      <c r="K148" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L148" s="21">
+      <c r="L148" s="3">
         <v>34</v>
       </c>
-      <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="23"/>
-      <c r="P148" s="23"/>
-      <c r="Q148" s="23"/>
-      <c r="R148" s="21"/>
-      <c r="S148" s="21"/>
-      <c r="T148" s="22" t="str">
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="T148" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A149" s="22">
+      <c r="A149" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B149" s="21" t="s">
+      <c r="B149" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F149" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G149" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H149" s="3">
@@ -64020,48 +64957,44 @@
       <c r="I149" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J149" s="21" t="s">
+      <c r="J149" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K149" s="21" t="s">
+      <c r="K149" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L149" s="21">
+      <c r="L149" s="3">
         <v>39</v>
       </c>
-      <c r="M149" s="21"/>
-      <c r="N149" s="21"/>
-      <c r="O149" s="23"/>
-      <c r="P149" s="23"/>
-      <c r="Q149" s="23"/>
-      <c r="R149" s="21"/>
-      <c r="S149" s="21"/>
-      <c r="T149" s="22" t="str">
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="T149" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A150" s="22">
+      <c r="A150" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D150" s="21" t="s">
+      <c r="D150" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E150" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F150" s="21" t="s">
+      <c r="F150" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G150" s="21" t="s">
+      <c r="G150" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H150" s="3">
@@ -64070,54 +65003,52 @@
       <c r="I150" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J150" s="21" t="s">
+      <c r="J150" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K150" s="21" t="s">
+      <c r="K150" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L150" s="21">
+      <c r="L150" s="3">
         <v>51</v>
       </c>
-      <c r="M150" s="21">
+      <c r="M150" s="3">
         <v>5</v>
       </c>
-      <c r="N150" s="21">
+      <c r="N150" s="3">
         <v>61</v>
       </c>
-      <c r="O150" s="23">
+      <c r="O150" s="9">
         <v>7</v>
       </c>
-      <c r="P150" s="23"/>
-      <c r="Q150" s="23"/>
-      <c r="R150" s="21"/>
-      <c r="S150" s="21"/>
-      <c r="T150" s="22" t="str">
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="T150" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A151" s="22">
+      <c r="A151" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D151" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E151" s="21" t="s">
+      <c r="D151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F151" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G151" s="21" t="s">
+      <c r="G151" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H151" s="3">
@@ -64126,48 +65057,44 @@
       <c r="I151" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J151" s="21" t="s">
+      <c r="J151" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K151" s="21" t="s">
+      <c r="K151" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L151" s="21">
+      <c r="L151" s="3">
         <v>41</v>
       </c>
-      <c r="M151" s="21"/>
-      <c r="N151" s="21"/>
-      <c r="O151" s="23"/>
-      <c r="P151" s="23"/>
-      <c r="Q151" s="23"/>
-      <c r="R151" s="21"/>
-      <c r="S151" s="21"/>
-      <c r="T151" s="22" t="str">
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+      <c r="T151" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服青根高伸ICONIC</v>
+        <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A152" s="22">
+      <c r="A152" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="21" t="s">
+      <c r="D152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="21" t="s">
+      <c r="F152" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G152" s="21" t="s">
+      <c r="G152" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H152" s="3">
@@ -64176,48 +65103,44 @@
       <c r="I152" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J152" s="21" t="s">
+      <c r="J152" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K152" s="21" t="s">
+      <c r="K152" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L152" s="21">
+      <c r="L152" s="3">
         <v>41</v>
       </c>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="23"/>
-      <c r="P152" s="23"/>
-      <c r="Q152" s="23"/>
-      <c r="R152" s="21"/>
-      <c r="S152" s="21"/>
-      <c r="T152" s="22" t="str">
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+      <c r="T152" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服青根高伸ICONIC</v>
+        <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A153" s="22">
+      <c r="A153" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" s="21" t="s">
+      <c r="D153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F153" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G153" s="21" t="s">
+      <c r="G153" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H153" s="3">
@@ -64226,48 +65149,44 @@
       <c r="I153" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J153" s="21" t="s">
+      <c r="J153" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K153" s="21" t="s">
+      <c r="K153" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L153" s="21">
+      <c r="L153" s="3">
         <v>42</v>
       </c>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="23"/>
-      <c r="P153" s="23"/>
-      <c r="Q153" s="23"/>
-      <c r="R153" s="21"/>
-      <c r="S153" s="21"/>
-      <c r="T153" s="22" t="str">
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+      <c r="T153" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服青根高伸ICONIC</v>
+        <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A154" s="22">
+      <c r="A154" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C154" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D154" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E154" s="21" t="s">
+      <c r="D154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F154" s="21" t="s">
+      <c r="F154" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G154" s="21" t="s">
+      <c r="G154" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H154" s="3">
@@ -64276,48 +65195,44 @@
       <c r="I154" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J154" s="21" t="s">
+      <c r="J154" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K154" s="21" t="s">
+      <c r="K154" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L154" s="21">
+      <c r="L154" s="3">
         <v>34</v>
       </c>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="23"/>
-      <c r="P154" s="23"/>
-      <c r="Q154" s="23"/>
-      <c r="R154" s="21"/>
-      <c r="S154" s="21"/>
-      <c r="T154" s="22" t="str">
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+      <c r="T154" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服青根高伸ICONIC</v>
+        <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A155" s="22">
+      <c r="A155" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C155" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D155" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E155" s="21" t="s">
+      <c r="D155" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F155" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G155" s="21" t="s">
+      <c r="G155" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H155" s="3">
@@ -64326,380 +65241,364 @@
       <c r="I155" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J155" s="21" t="s">
+      <c r="J155" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K155" s="21" t="s">
+      <c r="K155" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L155" s="21">
+      <c r="L155" s="3">
         <v>36</v>
       </c>
-      <c r="M155" s="21"/>
-      <c r="N155" s="21"/>
-      <c r="O155" s="23"/>
-      <c r="P155" s="23"/>
-      <c r="Q155" s="23"/>
-      <c r="R155" s="21"/>
-      <c r="S155" s="21"/>
-      <c r="T155" s="22" t="str">
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+      <c r="T155" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服青根高伸ICONIC</v>
+        <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A156" s="22" t="str">
+      <c r="A156" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" s="3">
+        <v>1</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L156" s="3">
+        <v>30</v>
+      </c>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
+      <c r="T156" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L157" s="3">
+        <v>30</v>
+      </c>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="T157" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L158" s="3">
+        <v>26</v>
+      </c>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
+      <c r="T158" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A159" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="3">
-        <v>1</v>
-      </c>
-      <c r="I156" s="7" t="s">
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="23"/>
-      <c r="P156" s="23"/>
-      <c r="Q156" s="23"/>
-      <c r="R156" s="21"/>
-      <c r="S156" s="21"/>
-      <c r="T156" s="22" t="str">
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="23"/>
+      <c r="P159" s="23"/>
+      <c r="Q159" s="23"/>
+      <c r="R159" s="21"/>
+      <c r="S159" s="21"/>
+      <c r="T159" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A157" s="22" t="str">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="3">
-        <v>1</v>
-      </c>
-      <c r="I157" s="7" t="s">
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+      <c r="I160" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
-      <c r="O157" s="23"/>
-      <c r="P157" s="23"/>
-      <c r="Q157" s="23"/>
-      <c r="R157" s="21"/>
-      <c r="S157" s="21"/>
-      <c r="T157" s="22" t="str">
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="21"/>
+      <c r="O160" s="23"/>
+      <c r="P160" s="23"/>
+      <c r="Q160" s="23"/>
+      <c r="R160" s="21"/>
+      <c r="S160" s="21"/>
+      <c r="T160" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A158" s="22">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>41</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G158" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H158" s="3">
-        <v>1</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
-      <c r="O158" s="23"/>
-      <c r="P158" s="23"/>
-      <c r="Q158" s="23"/>
-      <c r="R158" s="21"/>
-      <c r="S158" s="21"/>
-      <c r="T158" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>プール掃除青根高伸ICONIC</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="O159" s="9"/>
-      <c r="P159" s="9"/>
-      <c r="Q159" s="9"/>
-      <c r="T159" s="3" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム二口堅治ICONIC</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H160" s="3">
-        <v>1</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="O160" s="9"/>
-      <c r="P160" s="9"/>
-      <c r="Q160" s="9"/>
-      <c r="T160" s="3" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
       <c r="H161" s="3">
         <v>1</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="O161" s="9"/>
-      <c r="P161" s="9"/>
-      <c r="Q161" s="9"/>
-      <c r="T161" s="3" t="str">
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="21"/>
+      <c r="O161" s="23"/>
+      <c r="P161" s="23"/>
+      <c r="Q161" s="23"/>
+      <c r="R161" s="21"/>
+      <c r="S161" s="21"/>
+      <c r="T161" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G162" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B162" s="21"/>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
       <c r="H162" s="3">
         <v>1</v>
       </c>
       <c r="I162" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="O162" s="9"/>
-      <c r="P162" s="9"/>
-      <c r="Q162" s="9"/>
-      <c r="T162" s="3" t="str">
+      <c r="J162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="21"/>
+      <c r="M162" s="21"/>
+      <c r="N162" s="21"/>
+      <c r="O162" s="23"/>
+      <c r="P162" s="23"/>
+      <c r="Q162" s="23"/>
+      <c r="R162" s="21"/>
+      <c r="S162" s="21"/>
+      <c r="T162" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>46</v>
-      </c>
-      <c r="B163" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C163" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G163" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B163" s="21"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
       <c r="H163" s="3">
         <v>1</v>
       </c>
       <c r="I163" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="O163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9"/>
-      <c r="T163" s="3" t="str">
+      <c r="J163" s="21"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="21"/>
+      <c r="M163" s="21"/>
+      <c r="N163" s="21"/>
+      <c r="O163" s="23"/>
+      <c r="P163" s="23"/>
+      <c r="Q163" s="23"/>
+      <c r="R163" s="21"/>
+      <c r="S163" s="21"/>
+      <c r="T163" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C164" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F164" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
       <c r="H164" s="3">
         <v>1</v>
       </c>
       <c r="I164" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="O164" s="9"/>
-      <c r="P164" s="9"/>
-      <c r="Q164" s="9"/>
-      <c r="T164" s="3" t="str">
+      <c r="J164" s="21"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="21"/>
+      <c r="M164" s="21"/>
+      <c r="N164" s="21"/>
+      <c r="O164" s="23"/>
+      <c r="P164" s="23"/>
+      <c r="Q164" s="23"/>
+      <c r="R164" s="21"/>
+      <c r="S164" s="21"/>
+      <c r="T164" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小原豊ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="22">
+      <c r="A165" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D165" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F165" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G165" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
       <c r="H165" s="3">
         <v>1</v>
       </c>
@@ -64718,32 +65617,20 @@
       <c r="S165" s="21"/>
       <c r="T165" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム女川太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="22">
+      <c r="A166" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>49</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D166" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F166" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B166" s="21"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
       <c r="H166" s="3">
         <v>1</v>
       </c>
@@ -64762,32 +65649,20 @@
       <c r="S166" s="21"/>
       <c r="T166" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="22">
+      <c r="A167" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="B167" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G167" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
       <c r="H167" s="3">
         <v>1</v>
       </c>
@@ -64806,32 +65681,20 @@
       <c r="S167" s="21"/>
       <c r="T167" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="22">
+      <c r="A168" s="22" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D168" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F168" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" s="21" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B168" s="21"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
       <c r="H168" s="3">
         <v>1</v>
       </c>
@@ -64850,401 +65713,696 @@
       <c r="S168" s="21"/>
       <c r="T168" s="22" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="str">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="3">
+        <v>1</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O169" s="9"/>
+      <c r="P169" s="9"/>
+      <c r="Q169" s="9"/>
+      <c r="T169" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" s="3">
+        <v>1</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O170" s="9"/>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
+      <c r="T170" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>制服二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H171" s="3">
+        <v>1</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
+      <c r="T171" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>プール掃除二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" s="3">
+        <v>1</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
+      <c r="T172" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム小金川貫至ICONIC</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
+      <c r="T173" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>制服小金川貫至ICONIC</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9"/>
+      <c r="Q174" s="9"/>
+      <c r="T174" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム小原豊ICONIC</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="9"/>
+      <c r="T175" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム女川太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>49</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O176" s="9"/>
+      <c r="P176" s="9"/>
+      <c r="Q176" s="9"/>
+      <c r="T176" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム作並浩輔ICONIC</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="9"/>
+      <c r="T177" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O178" s="9"/>
+      <c r="P178" s="9"/>
+      <c r="Q178" s="9"/>
+      <c r="T178" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A169" s="22">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>52</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B179" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C179" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D179" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E179" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="F179" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G169" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H169" s="3">
-        <v>1</v>
-      </c>
-      <c r="I169" s="7" t="s">
+      <c r="G179" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J169" s="21"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="21"/>
-      <c r="M169" s="21"/>
-      <c r="N169" s="21"/>
-      <c r="O169" s="23"/>
-      <c r="P169" s="23"/>
-      <c r="Q169" s="23"/>
-      <c r="R169" s="21"/>
-      <c r="S169" s="21"/>
-      <c r="T169" s="22" t="str">
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
+      <c r="T179" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="22">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B180" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C180" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D180" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="E180" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F170" s="21" t="s">
+      <c r="F180" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G170" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H170" s="3">
-        <v>1</v>
-      </c>
-      <c r="I170" s="7" t="s">
+      <c r="G180" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="I180" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J170" s="21"/>
-      <c r="K170" s="21"/>
-      <c r="L170" s="21"/>
-      <c r="M170" s="21"/>
-      <c r="N170" s="21"/>
-      <c r="O170" s="23"/>
-      <c r="P170" s="23"/>
-      <c r="Q170" s="23"/>
-      <c r="R170" s="21"/>
-      <c r="S170" s="21"/>
-      <c r="T170" s="22" t="str">
+      <c r="O180" s="9"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="9"/>
+      <c r="T180" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム岩泉一ICONIC</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="22">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>54</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B181" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C181" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D181" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="E181" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="F181" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G171" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H171" s="3">
-        <v>1</v>
-      </c>
-      <c r="I171" s="7" t="s">
+      <c r="G181" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J171" s="21"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="21"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="21"/>
-      <c r="O171" s="23"/>
-      <c r="P171" s="23"/>
-      <c r="Q171" s="23"/>
-      <c r="R171" s="21"/>
-      <c r="S171" s="21"/>
-      <c r="T171" s="22" t="str">
+      <c r="O181" s="9"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="9"/>
+      <c r="T181" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>プール掃除岩泉一ICONIC</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A172" s="22">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B182" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C182" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D182" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E182" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F182" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G172" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H172" s="3">
-        <v>1</v>
-      </c>
-      <c r="I172" s="7" t="s">
+      <c r="G182" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J172" s="21"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="21"/>
-      <c r="O172" s="23"/>
-      <c r="P172" s="23"/>
-      <c r="Q172" s="23"/>
-      <c r="R172" s="21"/>
-      <c r="S172" s="21"/>
-      <c r="T172" s="22" t="str">
+      <c r="O182" s="9"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="9"/>
+      <c r="T182" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム金田一勇太郎ICONIC</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A173" s="22">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>56</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B183" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C183" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D183" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E183" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="21" t="s">
+      <c r="F183" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G173" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H173" s="3">
-        <v>1</v>
-      </c>
-      <c r="I173" s="7" t="s">
+      <c r="G183" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J173" s="21"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="21"/>
-      <c r="O173" s="23"/>
-      <c r="P173" s="23"/>
-      <c r="Q173" s="23"/>
-      <c r="R173" s="21"/>
-      <c r="S173" s="21"/>
-      <c r="T173" s="22" t="str">
+      <c r="O183" s="9"/>
+      <c r="P183" s="9"/>
+      <c r="Q183" s="9"/>
+      <c r="T183" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム京谷賢太郎ICONIC</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A174" s="22">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B184" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C184" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D184" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E184" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F184" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G174" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H174" s="3">
-        <v>1</v>
-      </c>
-      <c r="I174" s="7" t="s">
+      <c r="G184" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J174" s="21"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
-      <c r="O174" s="23"/>
-      <c r="P174" s="23"/>
-      <c r="Q174" s="23"/>
-      <c r="R174" s="21"/>
-      <c r="S174" s="21"/>
-      <c r="T174" s="22" t="str">
+      <c r="O184" s="9"/>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="9"/>
+      <c r="T184" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム国見英ICONIC</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A175" s="22">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>58</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B185" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C185" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D185" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E185" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="F185" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G175" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H175" s="3">
-        <v>1</v>
-      </c>
-      <c r="I175" s="7" t="s">
+      <c r="G185" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1</v>
+      </c>
+      <c r="I185" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J175" s="21"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="21"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="21"/>
-      <c r="O175" s="23"/>
-      <c r="P175" s="23"/>
-      <c r="Q175" s="23"/>
-      <c r="R175" s="21"/>
-      <c r="S175" s="21"/>
-      <c r="T175" s="22" t="str">
+      <c r="O185" s="9"/>
+      <c r="P185" s="9"/>
+      <c r="Q185" s="9"/>
+      <c r="T185" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム渡親治ICONIC</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A176" s="22">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>59</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B186" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C186" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D186" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E186" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F186" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G176" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H176" s="3">
-        <v>1</v>
-      </c>
-      <c r="I176" s="7" t="s">
+      <c r="G186" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J176" s="21"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="21"/>
-      <c r="O176" s="23"/>
-      <c r="P176" s="23"/>
-      <c r="Q176" s="23"/>
-      <c r="R176" s="21"/>
-      <c r="S176" s="21"/>
-      <c r="T176" s="22" t="str">
+      <c r="O186" s="9"/>
+      <c r="P186" s="9"/>
+      <c r="Q186" s="9"/>
+      <c r="T186" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム松川一静ICONIC</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A177" s="22">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B187" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C187" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D187" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="E187" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="F187" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G177" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="I177" s="7" t="s">
+      <c r="G187" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1</v>
+      </c>
+      <c r="I187" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J177" s="21"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="21"/>
-      <c r="O177" s="23"/>
-      <c r="P177" s="23"/>
-      <c r="Q177" s="23"/>
-      <c r="R177" s="21"/>
-      <c r="S177" s="21"/>
-      <c r="T177" s="22" t="str">
+      <c r="O187" s="9"/>
+      <c r="P187" s="9"/>
+      <c r="Q187" s="9"/>
+      <c r="T187" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -65262,8 +66420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EB787-EFAC-4F5B-9759-C6BCD399BDBD}">
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68152,22 +69310,22 @@
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>39</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H63" s="3">
@@ -68191,26 +69349,26 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H64" s="3">
@@ -68228,38 +69386,32 @@
       <c r="L64" s="3">
         <v>32</v>
       </c>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="22" t="str">
+      <c r="T64" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>制服青根高伸ICONIC</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+      <c r="A65" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H65" s="3">
@@ -68277,38 +69429,32 @@
       <c r="L65" s="3">
         <v>32</v>
       </c>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="22" t="str">
+      <c r="T65" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>41</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H66" s="3">
@@ -68317,220 +69463,190 @@
       <c r="I66" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J66" s="21" t="s">
+      <c r="J66" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K66" s="21" t="s">
+      <c r="K66" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L66" s="21">
+      <c r="L66" s="3">
         <v>43</v>
       </c>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21">
+      <c r="N66" s="3">
         <v>53</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21" t="s">
+      <c r="R66" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="S66" s="21">
+      <c r="S66" s="3">
         <v>2</v>
       </c>
-      <c r="T66" s="22" t="str">
+      <c r="T66" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>プール掃除青根高伸ICONIC</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="str">
+      <c r="A67" s="3">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" s="3">
+        <v>32</v>
+      </c>
+      <c r="T67" s="3" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" s="3">
+        <v>12</v>
+      </c>
+      <c r="T68" s="3" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="22" t="str">
+      <c r="T69" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="str">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="3">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="22" t="str">
+      <c r="T70" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="str">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="22" t="str">
+      <c r="T71" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="22" t="str">
-        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="22" t="str">
-        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
-        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>42</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="22" t="str">
-        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム二口堅治ICONIC</v>
-      </c>
-    </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
+      <c r="A72" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>43</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H72" s="3">
@@ -68539,41 +69655,32 @@
       <c r="I72" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="22" t="str">
+      <c r="T72" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>44</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H73" s="3">
@@ -68582,41 +69689,32 @@
       <c r="I73" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="22" t="str">
+      <c r="T73" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H74" s="3">
@@ -68625,41 +69723,32 @@
       <c r="I74" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="22" t="str">
+      <c r="T74" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+      <c r="A75" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>46</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H75" s="3">
@@ -68668,41 +69757,32 @@
       <c r="I75" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="22" t="str">
+      <c r="T75" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>制服小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
+      <c r="A76" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>47</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G76" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H76" s="3">
@@ -68711,41 +69791,32 @@
       <c r="I76" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="22" t="str">
+      <c r="T76" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム小原豊ICONIC</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="A77" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H77" s="3">
@@ -68754,41 +69825,32 @@
       <c r="I77" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="22" t="str">
+      <c r="T77" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム女川太郎ICONIC</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="A78" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>49</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="G78" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H78" s="3">
@@ -68797,41 +69859,32 @@
       <c r="I78" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="22" t="str">
+      <c r="T78" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H79" s="3">
@@ -68840,41 +69893,32 @@
       <c r="I79" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="22" t="str">
+      <c r="T79" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="22">
+      <c r="A80" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>51</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H80" s="3">
@@ -68883,41 +69927,32 @@
       <c r="I80" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="22" t="str">
+      <c r="T80" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>52</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G81" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H81" s="3">
@@ -68926,41 +69961,32 @@
       <c r="I81" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="22" t="str">
+      <c r="T81" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="22">
+      <c r="A82" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>53</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="G82" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H82" s="3">
@@ -68969,41 +69995,32 @@
       <c r="I82" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="22" t="str">
+      <c r="T82" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム岩泉一ICONIC</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>54</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H83" s="3">
@@ -69012,41 +70029,32 @@
       <c r="I83" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="22" t="str">
+      <c r="T83" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>プール掃除岩泉一ICONIC</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
+      <c r="A84" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H84" s="3">
@@ -69055,41 +70063,32 @@
       <c r="I84" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="22" t="str">
+      <c r="T84" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム金田一勇太郎ICONIC</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="A85" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>56</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="G85" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H85" s="3">
@@ -69098,41 +70097,32 @@
       <c r="I85" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="22" t="str">
+      <c r="T85" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム京谷賢太郎ICONIC</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" s="22">
+      <c r="A86" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>57</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="G86" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H86" s="3">
@@ -69141,41 +70131,32 @@
       <c r="I86" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="22" t="str">
+      <c r="T86" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム国見英ICONIC</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A87" s="22">
+      <c r="A87" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>58</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G87" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H87" s="3">
@@ -69184,16 +70165,7 @@
       <c r="I87" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="22" t="str">
+      <c r="T87" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム渡親治ICONIC</v>
       </c>

--- a/PlayersParams/ハイドリキャラ能力一覧.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\github\haidream\haikyuu_haidream_public\PlayersParams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9A679-3BE0-47B3-B02D-B293548C5330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42838230-2716-4CBB-BC33-771CA101209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="1703" windowWidth="36464" windowHeight="23729" tabRatio="809" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7400" yWindow="1703" windowWidth="36464" windowHeight="23729" tabRatio="809" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot_stat" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9237" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9511" uniqueCount="308">
   <si>
     <t>名前</t>
   </si>
@@ -1937,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1962,8 +1962,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13300,8 +13301,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}" name="Attack" displayName="Attack" ref="A1:T204" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68">
-  <autoFilter ref="A1:T204" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}" name="Attack" displayName="Attack" ref="A1:T218" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68">
+  <autoFilter ref="A1:T218" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{36F4B6B6-F6E1-4731-A88B-A22A35E3DC0E}" name="No" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -13366,8 +13367,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}" name="Special" displayName="Special" ref="A1:T91" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:T91" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}" name="Special" displayName="Special" ref="A1:T95" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:T95" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{7649EF8A-FBDF-4071-875E-664E6D86B3CF}" name="No" dataDxfId="23">
       <calculatedColumnFormula>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -25019,8 +25020,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27433,48 +27434,90 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
+      <c r="A50">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
         <v>218</v>
       </c>
+      <c r="J50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L50" s="4">
+        <v>34</v>
+      </c>
       <c r="T50" s="4" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
+      <c r="A51">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
         <v>218</v>
       </c>
+      <c r="J51" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L51" s="4">
+        <v>34</v>
+      </c>
       <c r="T51" s="4" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
       <c r="U51" s="4"/>
     </row>
@@ -27547,27 +27590,9 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H56">
         <v>1</v>
@@ -27577,32 +27602,14 @@
       </c>
       <c r="T56" s="4" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v/>
       </c>
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H57">
         <v>1</v>
@@ -27612,7 +27619,7 @@
       </c>
       <c r="T57" s="4" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
       <c r="U57" s="4"/>
     </row>
@@ -28190,7 +28197,7 @@
   <dimension ref="A1:T295"/>
   <sheetViews>
     <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249:G254"/>
+      <selection activeCell="B261" sqref="B261:G268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40735,7 +40742,7 @@
       <c r="Q250"/>
       <c r="R250"/>
       <c r="S250"/>
-      <c r="T250" s="21" t="str">
+      <c r="T250" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム二口堅治ICONIC</v>
       </c>
@@ -40785,7 +40792,7 @@
       <c r="Q251"/>
       <c r="R251"/>
       <c r="S251"/>
-      <c r="T251" s="21" t="str">
+      <c r="T251" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム二口堅治ICONIC</v>
       </c>
@@ -40835,7 +40842,7 @@
       <c r="Q252"/>
       <c r="R252"/>
       <c r="S252"/>
-      <c r="T252" s="21" t="str">
+      <c r="T252" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム二口堅治ICONIC</v>
       </c>
@@ -40885,7 +40892,7 @@
       <c r="Q253"/>
       <c r="R253"/>
       <c r="S253"/>
-      <c r="T253" s="21" t="str">
+      <c r="T253" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム二口堅治ICONIC</v>
       </c>
@@ -40935,31 +40942,49 @@
       <c r="Q254"/>
       <c r="R254"/>
       <c r="S254"/>
-      <c r="T254" s="21" t="str">
+      <c r="T254" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A255" t="str">
+      <c r="A255">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B255"/>
-      <c r="C255"/>
-      <c r="D255"/>
-      <c r="E255"/>
-      <c r="F255"/>
-      <c r="G255"/>
+        <v>43</v>
+      </c>
+      <c r="B255" t="s">
+        <v>151</v>
+      </c>
+      <c r="C255" t="s">
+        <v>50</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" t="s">
+        <v>25</v>
+      </c>
+      <c r="F255" t="s">
+        <v>49</v>
+      </c>
+      <c r="G255" t="s">
+        <v>72</v>
+      </c>
       <c r="H255">
         <v>1</v>
       </c>
       <c r="I255" t="s">
         <v>243</v>
       </c>
-      <c r="J255"/>
-      <c r="K255"/>
-      <c r="L255"/>
+      <c r="J255" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L255">
+        <v>26</v>
+      </c>
       <c r="M255"/>
       <c r="N255"/>
       <c r="O255"/>
@@ -40967,31 +40992,49 @@
       <c r="Q255"/>
       <c r="R255"/>
       <c r="S255"/>
-      <c r="T255" s="21" t="str">
+      <c r="T255" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A256" t="str">
+      <c r="A256">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256"/>
-      <c r="E256"/>
-      <c r="F256"/>
-      <c r="G256"/>
+        <v>43</v>
+      </c>
+      <c r="B256" t="s">
+        <v>151</v>
+      </c>
+      <c r="C256" t="s">
+        <v>50</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256" t="s">
+        <v>49</v>
+      </c>
+      <c r="G256" t="s">
+        <v>72</v>
+      </c>
       <c r="H256">
         <v>1</v>
       </c>
       <c r="I256" t="s">
         <v>243</v>
       </c>
-      <c r="J256"/>
-      <c r="K256"/>
-      <c r="L256"/>
+      <c r="J256" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L256">
+        <v>26</v>
+      </c>
       <c r="M256"/>
       <c r="N256"/>
       <c r="O256"/>
@@ -40999,31 +41042,49 @@
       <c r="Q256"/>
       <c r="R256"/>
       <c r="S256"/>
-      <c r="T256" s="21" t="str">
+      <c r="T256" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A257" t="str">
+      <c r="A257">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B257"/>
-      <c r="C257"/>
-      <c r="D257"/>
-      <c r="E257"/>
-      <c r="F257"/>
-      <c r="G257"/>
+        <v>43</v>
+      </c>
+      <c r="B257" t="s">
+        <v>151</v>
+      </c>
+      <c r="C257" t="s">
+        <v>50</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" t="s">
+        <v>25</v>
+      </c>
+      <c r="F257" t="s">
+        <v>49</v>
+      </c>
+      <c r="G257" t="s">
+        <v>72</v>
+      </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257" t="s">
         <v>243</v>
       </c>
-      <c r="J257"/>
-      <c r="K257"/>
-      <c r="L257"/>
+      <c r="J257" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L257">
+        <v>26</v>
+      </c>
       <c r="M257"/>
       <c r="N257"/>
       <c r="O257"/>
@@ -41031,31 +41092,49 @@
       <c r="Q257"/>
       <c r="R257"/>
       <c r="S257"/>
-      <c r="T257" s="21" t="str">
+      <c r="T257" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A258" t="str">
+      <c r="A258">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B258"/>
-      <c r="C258"/>
-      <c r="D258"/>
-      <c r="E258"/>
-      <c r="F258"/>
-      <c r="G258"/>
+        <v>43</v>
+      </c>
+      <c r="B258" t="s">
+        <v>151</v>
+      </c>
+      <c r="C258" t="s">
+        <v>50</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258" t="s">
+        <v>49</v>
+      </c>
+      <c r="G258" t="s">
+        <v>72</v>
+      </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>243</v>
       </c>
-      <c r="J258"/>
-      <c r="K258"/>
-      <c r="L258"/>
+      <c r="J258" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L258">
+        <v>26</v>
+      </c>
       <c r="M258"/>
       <c r="N258"/>
       <c r="O258"/>
@@ -41063,31 +41142,49 @@
       <c r="Q258"/>
       <c r="R258"/>
       <c r="S258"/>
-      <c r="T258" s="21" t="str">
+      <c r="T258" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A259" t="str">
+      <c r="A259">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B259"/>
-      <c r="C259"/>
-      <c r="D259"/>
-      <c r="E259"/>
-      <c r="F259"/>
-      <c r="G259"/>
+        <v>43</v>
+      </c>
+      <c r="B259" t="s">
+        <v>151</v>
+      </c>
+      <c r="C259" t="s">
+        <v>50</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259" t="s">
+        <v>49</v>
+      </c>
+      <c r="G259" t="s">
+        <v>72</v>
+      </c>
       <c r="H259">
         <v>1</v>
       </c>
       <c r="I259" t="s">
         <v>243</v>
       </c>
-      <c r="J259"/>
-      <c r="K259"/>
-      <c r="L259"/>
+      <c r="J259" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L259">
+        <v>26</v>
+      </c>
       <c r="M259"/>
       <c r="N259"/>
       <c r="O259"/>
@@ -41095,31 +41192,49 @@
       <c r="Q259"/>
       <c r="R259"/>
       <c r="S259"/>
-      <c r="T259" s="21" t="str">
+      <c r="T259" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A260" t="str">
+      <c r="A260">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
+        <v>43</v>
+      </c>
+      <c r="B260" t="s">
+        <v>151</v>
+      </c>
+      <c r="C260" t="s">
+        <v>50</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260" t="s">
+        <v>49</v>
+      </c>
+      <c r="G260" t="s">
+        <v>72</v>
+      </c>
       <c r="H260">
         <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>243</v>
       </c>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
+      <c r="J260" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L260">
+        <v>26</v>
+      </c>
       <c r="M260"/>
       <c r="N260"/>
       <c r="O260"/>
@@ -41127,31 +41242,49 @@
       <c r="Q260"/>
       <c r="R260"/>
       <c r="S260"/>
-      <c r="T260" s="21" t="str">
+      <c r="T260" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A261" t="str">
+      <c r="A261">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B261"/>
-      <c r="C261"/>
-      <c r="D261"/>
-      <c r="E261"/>
-      <c r="F261"/>
-      <c r="G261"/>
+        <v>44</v>
+      </c>
+      <c r="B261" t="s">
+        <v>119</v>
+      </c>
+      <c r="C261" t="s">
+        <v>50</v>
+      </c>
+      <c r="D261" t="s">
+        <v>23</v>
+      </c>
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+      <c r="F261" t="s">
+        <v>49</v>
+      </c>
+      <c r="G261" t="s">
+        <v>72</v>
+      </c>
       <c r="H261">
         <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>243</v>
       </c>
-      <c r="J261"/>
-      <c r="K261"/>
-      <c r="L261"/>
+      <c r="J261" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L261">
+        <v>30</v>
+      </c>
       <c r="M261"/>
       <c r="N261"/>
       <c r="O261"/>
@@ -41159,31 +41292,49 @@
       <c r="Q261"/>
       <c r="R261"/>
       <c r="S261"/>
-      <c r="T261" s="21" t="str">
+      <c r="T261" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A262" t="str">
+      <c r="A262">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B262"/>
-      <c r="C262"/>
-      <c r="D262"/>
-      <c r="E262"/>
-      <c r="F262"/>
-      <c r="G262"/>
+        <v>44</v>
+      </c>
+      <c r="B262" t="s">
+        <v>119</v>
+      </c>
+      <c r="C262" t="s">
+        <v>50</v>
+      </c>
+      <c r="D262" t="s">
+        <v>23</v>
+      </c>
+      <c r="E262" t="s">
+        <v>25</v>
+      </c>
+      <c r="F262" t="s">
+        <v>49</v>
+      </c>
+      <c r="G262" t="s">
+        <v>72</v>
+      </c>
       <c r="H262">
         <v>1</v>
       </c>
       <c r="I262" t="s">
         <v>243</v>
       </c>
-      <c r="J262"/>
-      <c r="K262"/>
-      <c r="L262"/>
+      <c r="J262" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L262">
+        <v>27</v>
+      </c>
       <c r="M262"/>
       <c r="N262"/>
       <c r="O262"/>
@@ -41191,31 +41342,49 @@
       <c r="Q262"/>
       <c r="R262"/>
       <c r="S262"/>
-      <c r="T262" s="21" t="str">
+      <c r="T262" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A263" t="str">
+      <c r="A263">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B263"/>
-      <c r="C263"/>
-      <c r="D263"/>
-      <c r="E263"/>
-      <c r="F263"/>
-      <c r="G263"/>
+        <v>44</v>
+      </c>
+      <c r="B263" t="s">
+        <v>119</v>
+      </c>
+      <c r="C263" t="s">
+        <v>50</v>
+      </c>
+      <c r="D263" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+      <c r="F263" t="s">
+        <v>49</v>
+      </c>
+      <c r="G263" t="s">
+        <v>72</v>
+      </c>
       <c r="H263">
         <v>1</v>
       </c>
       <c r="I263" t="s">
         <v>243</v>
       </c>
-      <c r="J263"/>
-      <c r="K263"/>
-      <c r="L263"/>
+      <c r="J263" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L263" s="3">
+        <v>26</v>
+      </c>
       <c r="M263"/>
       <c r="N263"/>
       <c r="O263"/>
@@ -41223,31 +41392,49 @@
       <c r="Q263"/>
       <c r="R263"/>
       <c r="S263"/>
-      <c r="T263" s="21" t="str">
+      <c r="T263" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A264" t="str">
+      <c r="A264">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B264"/>
-      <c r="C264"/>
-      <c r="D264"/>
-      <c r="E264"/>
-      <c r="F264"/>
-      <c r="G264"/>
+        <v>44</v>
+      </c>
+      <c r="B264" t="s">
+        <v>119</v>
+      </c>
+      <c r="C264" t="s">
+        <v>50</v>
+      </c>
+      <c r="D264" t="s">
+        <v>23</v>
+      </c>
+      <c r="E264" t="s">
+        <v>25</v>
+      </c>
+      <c r="F264" t="s">
+        <v>49</v>
+      </c>
+      <c r="G264" t="s">
+        <v>72</v>
+      </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264" t="s">
         <v>243</v>
       </c>
-      <c r="J264"/>
-      <c r="K264"/>
-      <c r="L264"/>
+      <c r="J264" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L264">
+        <v>26</v>
+      </c>
       <c r="M264"/>
       <c r="N264"/>
       <c r="O264"/>
@@ -41255,15 +41442,33 @@
       <c r="Q264"/>
       <c r="R264"/>
       <c r="S264"/>
-      <c r="T264" s="21" t="str">
+      <c r="T264" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A265" t="str">
+      <c r="A265">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B265" t="s">
+        <v>119</v>
+      </c>
+      <c r="C265" t="s">
+        <v>50</v>
+      </c>
+      <c r="D265" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+      <c r="F265" t="s">
+        <v>49</v>
+      </c>
+      <c r="G265" t="s">
+        <v>72</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -41271,9 +41476,15 @@
       <c r="I265" t="s">
         <v>243</v>
       </c>
-      <c r="J265"/>
-      <c r="K265"/>
-      <c r="L265"/>
+      <c r="J265" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L265">
+        <v>30</v>
+      </c>
       <c r="M265"/>
       <c r="N265"/>
       <c r="O265"/>
@@ -41283,13 +41494,31 @@
       <c r="S265"/>
       <c r="T265" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A266" t="str">
+      <c r="A266">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B266" t="s">
+        <v>119</v>
+      </c>
+      <c r="C266" t="s">
+        <v>50</v>
+      </c>
+      <c r="D266" t="s">
+        <v>23</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+      <c r="F266" t="s">
+        <v>49</v>
+      </c>
+      <c r="G266" t="s">
+        <v>72</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -41297,9 +41526,15 @@
       <c r="I266" t="s">
         <v>243</v>
       </c>
-      <c r="J266"/>
-      <c r="K266"/>
-      <c r="L266"/>
+      <c r="J266" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L266">
+        <v>26</v>
+      </c>
       <c r="M266"/>
       <c r="N266"/>
       <c r="O266"/>
@@ -41309,13 +41544,31 @@
       <c r="S266"/>
       <c r="T266" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A267" t="str">
+      <c r="A267">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B267" t="s">
+        <v>119</v>
+      </c>
+      <c r="C267" t="s">
+        <v>50</v>
+      </c>
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
+      <c r="E267" t="s">
+        <v>25</v>
+      </c>
+      <c r="F267" t="s">
+        <v>49</v>
+      </c>
+      <c r="G267" t="s">
+        <v>72</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -41323,9 +41576,15 @@
       <c r="I267" t="s">
         <v>243</v>
       </c>
-      <c r="J267"/>
-      <c r="K267"/>
-      <c r="L267"/>
+      <c r="J267" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L267">
+        <v>26</v>
+      </c>
       <c r="M267"/>
       <c r="N267"/>
       <c r="O267"/>
@@ -41335,13 +41594,31 @@
       <c r="S267"/>
       <c r="T267" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A268" t="str">
+      <c r="A268">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B268" t="s">
+        <v>119</v>
+      </c>
+      <c r="C268" t="s">
+        <v>50</v>
+      </c>
+      <c r="D268" t="s">
+        <v>23</v>
+      </c>
+      <c r="E268" t="s">
+        <v>25</v>
+      </c>
+      <c r="F268" t="s">
+        <v>49</v>
+      </c>
+      <c r="G268" t="s">
+        <v>72</v>
       </c>
       <c r="H268">
         <v>1</v>
@@ -41349,11 +41626,19 @@
       <c r="I268" t="s">
         <v>243</v>
       </c>
-      <c r="J268"/>
-      <c r="K268"/>
-      <c r="L268"/>
+      <c r="J268" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L268">
+        <v>43</v>
+      </c>
       <c r="M268"/>
-      <c r="N268"/>
+      <c r="N268">
+        <v>53</v>
+      </c>
       <c r="O268"/>
       <c r="P268"/>
       <c r="Q268"/>
@@ -41361,7 +41646,7 @@
       <c r="S268"/>
       <c r="T268" s="3" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
@@ -41469,27 +41754,9 @@
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="A273" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B273" t="s">
-        <v>151</v>
-      </c>
-      <c r="C273" t="s">
-        <v>50</v>
-      </c>
-      <c r="D273" t="s">
-        <v>28</v>
-      </c>
-      <c r="E273" t="s">
-        <v>25</v>
-      </c>
-      <c r="F273" t="s">
-        <v>49</v>
-      </c>
-      <c r="G273" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H273">
         <v>1</v>
@@ -41509,31 +41776,13 @@
       <c r="S273"/>
       <c r="T273" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" t="str">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B274" t="s">
-        <v>119</v>
-      </c>
-      <c r="C274" t="s">
-        <v>50</v>
-      </c>
-      <c r="D274" t="s">
-        <v>23</v>
-      </c>
-      <c r="E274" t="s">
-        <v>25</v>
-      </c>
-      <c r="F274" t="s">
-        <v>49</v>
-      </c>
-      <c r="G274" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H274">
         <v>1</v>
@@ -41553,7 +41802,7 @@
       <c r="S274"/>
       <c r="T274" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
@@ -42434,7 +42683,7 @@
   <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:G120"/>
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48527,15 +48776,33 @@
       <c r="Q120"/>
       <c r="R120"/>
       <c r="S120"/>
-      <c r="T120" s="21" t="str">
+      <c r="T120" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム二口堅治ICONIC</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121" t="str">
+      <c r="A121">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -48543,9 +48810,15 @@
       <c r="I121" t="s">
         <v>246</v>
       </c>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
+      <c r="J121" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L121">
+        <v>24</v>
+      </c>
       <c r="M121"/>
       <c r="N121"/>
       <c r="O121"/>
@@ -48553,15 +48826,33 @@
       <c r="Q121"/>
       <c r="R121"/>
       <c r="S121"/>
-      <c r="T121" s="21" t="str">
+      <c r="T121" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A122" t="str">
+      <c r="A122">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -48569,9 +48860,15 @@
       <c r="I122" t="s">
         <v>246</v>
       </c>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
+      <c r="J122" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L122">
+        <v>32</v>
+      </c>
       <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>
@@ -48579,15 +48876,33 @@
       <c r="Q122"/>
       <c r="R122"/>
       <c r="S122"/>
-      <c r="T122" s="21" t="str">
+      <c r="T122" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" t="str">
+      <c r="A123">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -48595,9 +48910,15 @@
       <c r="I123" t="s">
         <v>246</v>
       </c>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
+      <c r="J123" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L123">
+        <v>24</v>
+      </c>
       <c r="M123"/>
       <c r="N123"/>
       <c r="O123"/>
@@ -48605,15 +48926,33 @@
       <c r="Q123"/>
       <c r="R123"/>
       <c r="S123"/>
-      <c r="T123" s="21" t="str">
+      <c r="T123" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A124" t="str">
+      <c r="A124">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -48621,9 +48960,15 @@
       <c r="I124" t="s">
         <v>246</v>
       </c>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
+      <c r="J124" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L124">
+        <v>32</v>
+      </c>
       <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
@@ -48631,9 +48976,9 @@
       <c r="Q124"/>
       <c r="R124"/>
       <c r="S124"/>
-      <c r="T124" s="21" t="str">
+      <c r="T124" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
@@ -48657,7 +49002,7 @@
       <c r="Q125"/>
       <c r="R125"/>
       <c r="S125"/>
-      <c r="T125" s="21" t="str">
+      <c r="T125" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -48683,7 +49028,7 @@
       <c r="Q126"/>
       <c r="R126"/>
       <c r="S126"/>
-      <c r="T126" s="21" t="str">
+      <c r="T126" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -48709,7 +49054,7 @@
       <c r="Q127"/>
       <c r="R127"/>
       <c r="S127"/>
-      <c r="T127" s="21" t="str">
+      <c r="T127" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -48735,7 +49080,7 @@
       <c r="Q128"/>
       <c r="R128"/>
       <c r="S128"/>
-      <c r="T128" s="21" t="str">
+      <c r="T128" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -48761,7 +49106,7 @@
       <c r="Q129"/>
       <c r="R129"/>
       <c r="S129"/>
-      <c r="T129" s="21" t="str">
+      <c r="T129" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -48819,27 +49164,9 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H132">
         <v>1</v>
@@ -48859,31 +49186,13 @@
       <c r="S132"/>
       <c r="T132" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" t="str">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H133">
         <v>1</v>
@@ -48903,7 +49212,7 @@
       <c r="S133"/>
       <c r="T133" s="3" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
@@ -49541,10 +49850,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81834FA-1C0F-4064-B538-E1E9F96DE39E}">
-  <dimension ref="A1:W204"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175:G179"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57421,9 +57730,27 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="str">
+      <c r="A180" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H180" s="3">
         <v>1</v>
@@ -57431,15 +57758,42 @@
       <c r="I180" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J180" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L180" s="3">
+        <v>36</v>
+      </c>
       <c r="T180" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="str">
+      <c r="A181" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H181" s="3">
         <v>1</v>
@@ -57447,15 +57801,42 @@
       <c r="I181" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J181" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L181" s="3">
+        <v>36</v>
+      </c>
       <c r="T181" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="str">
+      <c r="A182" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H182" s="3">
         <v>1</v>
@@ -57463,15 +57844,42 @@
       <c r="I182" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J182" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L182" s="3">
+        <v>32</v>
+      </c>
       <c r="T182" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="str">
+      <c r="A183" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H183" s="3">
         <v>1</v>
@@ -57479,15 +57887,42 @@
       <c r="I183" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J183" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L183" s="3">
+        <v>41</v>
+      </c>
       <c r="T183" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="str">
+      <c r="A184" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H184" s="3">
         <v>1</v>
@@ -57495,15 +57930,45 @@
       <c r="I184" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J184" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L184" s="3">
+        <v>43</v>
+      </c>
+      <c r="N184" s="3">
+        <v>53</v>
+      </c>
       <c r="T184" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="str">
+      <c r="A185" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H185" s="3">
         <v>1</v>
@@ -57511,15 +57976,42 @@
       <c r="I185" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J185" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L185" s="3">
+        <v>36</v>
+      </c>
       <c r="T185" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="str">
+      <c r="A186" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>44</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H186" s="3">
         <v>1</v>
@@ -57527,24 +58019,33 @@
       <c r="I186" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J186" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L186" s="3">
+        <v>36</v>
+      </c>
       <c r="T186" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>25</v>
@@ -57561,9 +58062,18 @@
       <c r="I187" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J187" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L187" s="3">
+        <v>32</v>
+      </c>
       <c r="T187" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
@@ -57595,33 +58105,24 @@
       <c r="I188" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="J188" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L188" s="3">
+        <v>35</v>
+      </c>
       <c r="T188" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H189" s="3">
         <v>1</v>
@@ -57629,33 +58130,15 @@
       <c r="I189" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T189" s="8" t="str">
+      <c r="T189" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>46</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H190" s="3">
         <v>1</v>
@@ -57663,33 +58146,15 @@
       <c r="I190" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T190" s="8" t="str">
+      <c r="T190" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>制服小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="A191" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H191" s="3">
         <v>1</v>
@@ -57697,33 +58162,15 @@
       <c r="I191" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T191" s="8" t="str">
+      <c r="T191" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小原豊ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H192" s="3">
         <v>1</v>
@@ -57731,33 +58178,15 @@
       <c r="I192" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T192" s="8" t="str">
+      <c r="T192" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム女川太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>49</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H193" s="3">
         <v>1</v>
@@ -57765,33 +58194,15 @@
       <c r="I193" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T193" s="8" t="str">
+      <c r="T193" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H194" s="3">
         <v>1</v>
@@ -57799,33 +58210,15 @@
       <c r="I194" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T194" s="8" t="str">
+      <c r="T194" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H195" s="3">
         <v>1</v>
@@ -57833,33 +58226,15 @@
       <c r="I195" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T195" s="8" t="str">
+      <c r="T195" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H196" s="3">
         <v>1</v>
@@ -57867,33 +58242,15 @@
       <c r="I196" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T196" s="8" t="str">
+      <c r="T196" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H197" s="3">
         <v>1</v>
@@ -57901,33 +58258,15 @@
       <c r="I197" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T197" s="8" t="str">
+      <c r="T197" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H198" s="3">
         <v>1</v>
@@ -57935,33 +58274,15 @@
       <c r="I198" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T198" s="8" t="str">
+      <c r="T198" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H199" s="3">
         <v>1</v>
@@ -57969,33 +58290,15 @@
       <c r="I199" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T199" s="8" t="str">
+      <c r="T199" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H200" s="3">
         <v>1</v>
@@ -58003,33 +58306,15 @@
       <c r="I200" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T200" s="8" t="str">
+      <c r="T200" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H201" s="3">
         <v>1</v>
@@ -58037,33 +58322,15 @@
       <c r="I201" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T201" s="8" t="str">
+      <c r="T201" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="22" t="str">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>72</v>
+        <v/>
       </c>
       <c r="H202" s="3">
         <v>1</v>
@@ -58071,30 +58338,30 @@
       <c r="I202" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T202" s="8" t="str">
+      <c r="T202" s="23" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>72</v>
@@ -58107,28 +58374,28 @@
       </c>
       <c r="T203" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>ユニフォーム小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>72</v>
@@ -58140,6 +58407,482 @@
         <v>249</v>
       </c>
       <c r="T204" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>制服小金川貫至ICONIC</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1</v>
+      </c>
+      <c r="I205" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T205" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム小原豊ICONIC</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1</v>
+      </c>
+      <c r="I206" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T206" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム女川太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>49</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1</v>
+      </c>
+      <c r="I207" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T207" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム作並浩輔ICONIC</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1</v>
+      </c>
+      <c r="I208" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T208" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+      <c r="I209" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T209" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T210" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H211" s="3">
+        <v>1</v>
+      </c>
+      <c r="I211" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T211" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="I212" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T212" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>プール掃除岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
+      <c r="I213" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T213" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T214" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T215" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+      <c r="I216" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T216" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1</v>
+      </c>
+      <c r="I217" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T217" s="8" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1</v>
+      </c>
+      <c r="I218" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T218" s="8" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -58157,8 +58900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6570FE42-5873-4E17-8625-5C59F305B378}">
   <dimension ref="A1:AJ187"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156:G158"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163:G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65397,321 +66140,413 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A159" s="22" t="str">
+      <c r="A159" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L159" s="3">
+        <v>30</v>
+      </c>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
+      <c r="T159" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>制服二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L160" s="3">
+        <v>31</v>
+      </c>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9"/>
+      <c r="T160" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>制服二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L161" s="3">
+        <v>29</v>
+      </c>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
+      <c r="T161" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>制服二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L162" s="3">
+        <v>42</v>
+      </c>
+      <c r="N162" s="3">
+        <v>52</v>
+      </c>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+      <c r="T162" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>制服二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L163" s="3">
+        <v>33</v>
+      </c>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+      <c r="T163" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>プール掃除二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H164" s="3">
+        <v>1</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L164" s="3">
+        <v>33</v>
+      </c>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9"/>
+      <c r="T164" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>プール掃除二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L165" s="3">
+        <v>27</v>
+      </c>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+      <c r="T165" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>プール掃除二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L166" s="3">
+        <v>42</v>
+      </c>
+      <c r="N166" s="3">
+        <v>52</v>
+      </c>
+      <c r="O166" s="9"/>
+      <c r="P166" s="9"/>
+      <c r="Q166" s="9"/>
+      <c r="T166" s="3" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>プール掃除二口堅治ICONIC</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="3">
-        <v>1</v>
-      </c>
-      <c r="I159" s="7" t="s">
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J159" s="21"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="21"/>
-      <c r="O159" s="23"/>
-      <c r="P159" s="23"/>
-      <c r="Q159" s="23"/>
-      <c r="R159" s="21"/>
-      <c r="S159" s="21"/>
-      <c r="T159" s="22" t="str">
+      <c r="O167" s="9"/>
+      <c r="P167" s="9"/>
+      <c r="Q167" s="9"/>
+      <c r="T167" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A160" s="22" t="str">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="3">
-        <v>1</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J160" s="21"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="21"/>
-      <c r="O160" s="23"/>
-      <c r="P160" s="23"/>
-      <c r="Q160" s="23"/>
-      <c r="R160" s="21"/>
-      <c r="S160" s="21"/>
-      <c r="T160" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A161" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="3">
-        <v>1</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
-      <c r="O161" s="23"/>
-      <c r="P161" s="23"/>
-      <c r="Q161" s="23"/>
-      <c r="R161" s="21"/>
-      <c r="S161" s="21"/>
-      <c r="T161" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A162" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B162" s="21"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="3">
-        <v>1</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J162" s="21"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="21"/>
-      <c r="O162" s="23"/>
-      <c r="P162" s="23"/>
-      <c r="Q162" s="23"/>
-      <c r="R162" s="21"/>
-      <c r="S162" s="21"/>
-      <c r="T162" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A163" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B163" s="21"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J163" s="21"/>
-      <c r="K163" s="21"/>
-      <c r="L163" s="21"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="21"/>
-      <c r="O163" s="23"/>
-      <c r="P163" s="23"/>
-      <c r="Q163" s="23"/>
-      <c r="R163" s="21"/>
-      <c r="S163" s="21"/>
-      <c r="T163" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A164" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="3">
-        <v>1</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J164" s="21"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="21"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="21"/>
-      <c r="O164" s="23"/>
-      <c r="P164" s="23"/>
-      <c r="Q164" s="23"/>
-      <c r="R164" s="21"/>
-      <c r="S164" s="21"/>
-      <c r="T164" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A165" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J165" s="21"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="21"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="21"/>
-      <c r="O165" s="23"/>
-      <c r="P165" s="23"/>
-      <c r="Q165" s="23"/>
-      <c r="R165" s="21"/>
-      <c r="S165" s="21"/>
-      <c r="T165" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A166" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B166" s="21"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="3">
-        <v>1</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J166" s="21"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="21"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="21"/>
-      <c r="O166" s="23"/>
-      <c r="P166" s="23"/>
-      <c r="Q166" s="23"/>
-      <c r="R166" s="21"/>
-      <c r="S166" s="21"/>
-      <c r="T166" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A167" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="3">
-        <v>1</v>
-      </c>
-      <c r="I167" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="J167" s="21"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="21"/>
-      <c r="N167" s="21"/>
-      <c r="O167" s="23"/>
-      <c r="P167" s="23"/>
-      <c r="Q167" s="23"/>
-      <c r="R167" s="21"/>
-      <c r="S167" s="21"/>
-      <c r="T167" s="22" t="str">
-        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A168" s="22" t="str">
-        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="21"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
       <c r="H168" s="3">
         <v>1</v>
       </c>
       <c r="I168" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="J168" s="21"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="21"/>
-      <c r="M168" s="21"/>
-      <c r="N168" s="21"/>
-      <c r="O168" s="23"/>
-      <c r="P168" s="23"/>
-      <c r="Q168" s="23"/>
-      <c r="R168" s="21"/>
-      <c r="S168" s="21"/>
-      <c r="T168" s="22" t="str">
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9"/>
+      <c r="T168" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
@@ -65721,12 +66556,6 @@
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="B169" s="21"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="21"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
       <c r="H169" s="3">
         <v>1</v>
       </c>
@@ -65742,28 +66571,16 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="3" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
       <c r="H170" s="3">
         <v>1</v>
       </c>
@@ -65775,32 +66592,20 @@
       <c r="Q170" s="9"/>
       <c r="T170" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="3" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
       <c r="H171" s="3">
         <v>1</v>
       </c>
@@ -65812,7 +66617,7 @@
       <c r="Q171" s="9"/>
       <c r="T171" s="3" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
@@ -66418,10 +67223,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EB787-EFAC-4F5B-9759-C6BCD399BDBD}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69573,9 +70378,27 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="str">
+      <c r="A69" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -69583,15 +70406,42 @@
       <c r="I69" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="J69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L69" s="3">
+        <v>32</v>
+      </c>
       <c r="T69" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="str">
+      <c r="A70" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>43</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -69599,46 +70449,76 @@
       <c r="I70" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="J70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L70" s="3">
+        <v>12</v>
+      </c>
       <c r="T70" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>制服二口堅治ICONIC</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="str">
+      <c r="A71" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H71" s="3">
         <v>1</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="J71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L71" s="3">
+        <v>32</v>
+      </c>
       <c r="T71" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>25</v>
@@ -69655,34 +70535,31 @@
       <c r="I72" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="J72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L72" s="3">
+        <v>12</v>
+      </c>
       <c r="T72" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>制服二口堅治ICONIC</v>
+        <v>プール掃除二口堅治ICONIC</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="3" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
       <c r="H73" s="3">
         <v>1</v>
       </c>
@@ -69691,161 +70568,149 @@
       </c>
       <c r="T73" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>プール掃除二口堅治ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="24" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="3">
         <v>1</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T74" s="3" t="str">
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="24" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="24" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>46</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
       <c r="H75" s="3">
         <v>1</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T75" s="3" t="str">
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="24" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>制服小金川貫至ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="24" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
       <c r="H76" s="3">
         <v>1</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T76" s="3" t="str">
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="24" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム小原豊ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="24" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
       <c r="H77" s="3">
         <v>1</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T77" s="3" t="str">
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="24" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム女川太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>49</v>
@@ -69861,25 +70726,25 @@
       </c>
       <c r="T78" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v>ユニフォーム小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>49</v>
@@ -69895,28 +70760,28 @@
       </c>
       <c r="T79" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v>制服小金川貫至ICONIC</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>72</v>
@@ -69929,28 +70794,28 @@
       </c>
       <c r="T80" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v>ユニフォーム小原豊ICONIC</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>72</v>
@@ -69963,28 +70828,28 @@
       </c>
       <c r="T81" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v>ユニフォーム女川太郎ICONIC</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>72</v>
@@ -69997,28 +70862,28 @@
       </c>
       <c r="T82" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>72</v>
@@ -70031,25 +70896,25 @@
       </c>
       <c r="T83" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>20</v>
@@ -70065,25 +70930,25 @@
       </c>
       <c r="T84" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>20</v>
@@ -70099,22 +70964,22 @@
       </c>
       <c r="T85" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>25</v>
@@ -70133,25 +70998,25 @@
       </c>
       <c r="T86" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v>ユニフォーム岩泉一ICONIC</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>20</v>
@@ -70167,22 +71032,22 @@
       </c>
       <c r="T87" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>プール掃除岩泉一ICONIC</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>26</v>
@@ -70201,22 +71066,22 @@
       </c>
       <c r="T88" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>25</v>
@@ -70235,37 +71100,173 @@
       </c>
       <c r="T89" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T90" s="3" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T91" s="3" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T92" s="3" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T93" s="3" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="str">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="3" t="s">
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T90" s="3" t="str">
+      <c r="T94" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="str">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v/>
       </c>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T91" s="3" t="str">
+      <c r="T95" s="3" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v/>
       </c>

--- a/PlayersParams/ハイドリキャラ能力一覧.xlsx
+++ b/PlayersParams/ハイドリキャラ能力一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\github\haidream\haikyuu_haidream_public\PlayersParams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1AF1C-7A28-4978-9DE0-B4F6FC2FB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68328DDF-78F0-4272-8DCE-8AAAD905E417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="1703" windowWidth="36464" windowHeight="23729" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10379" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10923" uniqueCount="407">
   <si>
     <t>名前</t>
   </si>
@@ -2150,6 +2150,16 @@
   </si>
   <si>
     <t>フローター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩泉一</t>
+    <rPh sb="0" eb="2">
+      <t>イワイズミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハジメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10779,7 +10789,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EBCDE1E-210F-4F7B-8F62-C3162B018AB6}" name="ピボットテーブル1" cacheId="3" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EBCDE1E-210F-4F7B-8F62-C3162B018AB6}" name="ピボットテーブル1" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="A101:J116" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -11444,8 +11454,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}" name="Receive" displayName="Receive" ref="A1:T318" totalsRowShown="0">
-  <autoFilter ref="A1:T318" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}" name="Receive" displayName="Receive" ref="A1:T346" totalsRowShown="0">
+  <autoFilter ref="A1:T346" xr:uid="{FBAD7A62-E8AE-4C04-8531-D7D9C2D7BE55}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{F9996509-3F91-4966-A53B-2CD887158A0B}" name="No">
       <calculatedColumnFormula>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -11477,8 +11487,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}" name="Toss" displayName="Toss" ref="A1:T160" totalsRowShown="0">
-  <autoFilter ref="A1:T160" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}" name="Toss" displayName="Toss" ref="A1:T172" totalsRowShown="0">
+  <autoFilter ref="A1:T172" xr:uid="{5F4BE081-226B-4B84-8D11-AD3AF1AF6910}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{1B7EDB19-8140-4A19-963A-F3287DC5772A}" name="No">
       <calculatedColumnFormula>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -11510,8 +11520,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}" name="Attack" displayName="Attack" ref="A1:T222" totalsRowShown="0">
-  <autoFilter ref="A1:T222" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}" name="Attack" displayName="Attack" ref="A1:T233" totalsRowShown="0">
+  <autoFilter ref="A1:T233" xr:uid="{E84A67F8-6B3C-4CF9-B694-21789DA0EB72}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{36F4B6B6-F6E1-4731-A88B-A22A35E3DC0E}" name="No">
       <calculatedColumnFormula>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -11543,8 +11553,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}" name="Block" displayName="Block" ref="A1:T208" totalsRowShown="0">
-  <autoFilter ref="A1:T208" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}" name="Block" displayName="Block" ref="A1:T213" totalsRowShown="0">
+  <autoFilter ref="A1:T213" xr:uid="{71E88B8C-6CA8-4AF4-BEF5-7B806BC56F0E}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{4DB7F3D6-F01E-448D-892B-C31C1CACF92C}" name="No">
       <calculatedColumnFormula>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -11576,8 +11586,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}" name="Special" displayName="Special" ref="A1:T98" totalsRowShown="0">
-  <autoFilter ref="A1:T98" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}" name="Special" displayName="Special" ref="A1:T103" totalsRowShown="0">
+  <autoFilter ref="A1:T103" xr:uid="{7A8283CE-1EFB-48A5-881E-362E9731A532}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{7649EF8A-FBDF-4071-875E-664E6D86B3CF}" name="No">
       <calculatedColumnFormula>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</calculatedColumnFormula>
@@ -23811,8 +23821,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26284,9 +26294,27 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" t="str">
+      <c r="A57">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -26296,13 +26324,31 @@
       </c>
       <c r="T57" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" t="str">
+      <c r="A58">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -26310,15 +26356,42 @@
       <c r="I58" t="s">
         <v>217</v>
       </c>
+      <c r="J58" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58">
+        <v>26</v>
+      </c>
       <c r="T58" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" t="str">
+      <c r="A59">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -26326,15 +26399,42 @@
       <c r="I59" t="s">
         <v>217</v>
       </c>
+      <c r="J59" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L59">
+        <v>37</v>
+      </c>
       <c r="T59" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" t="str">
+      <c r="A60">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -26342,15 +26442,45 @@
       <c r="I60" t="s">
         <v>217</v>
       </c>
+      <c r="J60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60">
+        <v>51</v>
+      </c>
+      <c r="N60">
+        <v>61</v>
+      </c>
       <c r="T60" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" t="str">
+      <c r="A61">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -26358,9 +26488,18 @@
       <c r="I61" t="s">
         <v>217</v>
       </c>
+      <c r="J61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L61">
+        <v>37</v>
+      </c>
       <c r="T61" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -26380,27 +26519,9 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H63">
         <v>1</v>
@@ -26410,31 +26531,13 @@
       </c>
       <c r="T63" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
-      </c>
-      <c r="B64" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H64">
         <v>1</v>
@@ -26444,31 +26547,13 @@
       </c>
       <c r="T64" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
-      </c>
-      <c r="B65" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H65">
         <v>1</v>
@@ -26478,31 +26563,13 @@
       </c>
       <c r="T65" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" t="str">
         <f>VLOOKUP(Serve[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H66">
         <v>1</v>
@@ -26512,7 +26579,7 @@
       </c>
       <c r="T66" t="str">
         <f>Serve[[#This Row],[服装]]&amp;Serve[[#This Row],[名前]]&amp;Serve[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -26799,10 +26866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3E201F-FB00-4E23-B4FD-72701A6D862A}">
-  <dimension ref="A1:T318"/>
+  <dimension ref="A1:T346"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292:G297"/>
+    <sheetView topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316:G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39645,9 +39712,27 @@
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A298" t="str">
+      <c r="A298">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B298" t="s">
+        <v>218</v>
+      </c>
+      <c r="C298" t="s">
+        <v>53</v>
+      </c>
+      <c r="D298" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F298" t="s">
+        <v>49</v>
+      </c>
+      <c r="G298" t="s">
+        <v>71</v>
       </c>
       <c r="H298">
         <v>1</v>
@@ -39655,15 +39740,42 @@
       <c r="I298" t="s">
         <v>242</v>
       </c>
+      <c r="J298" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L298">
+        <v>33</v>
+      </c>
       <c r="T298" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A299" t="str">
+      <c r="A299">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B299" t="s">
+        <v>218</v>
+      </c>
+      <c r="C299" t="s">
+        <v>53</v>
+      </c>
+      <c r="D299" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" t="s">
+        <v>21</v>
+      </c>
+      <c r="F299" t="s">
+        <v>49</v>
+      </c>
+      <c r="G299" t="s">
+        <v>71</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -39671,15 +39783,42 @@
       <c r="I299" t="s">
         <v>242</v>
       </c>
+      <c r="J299" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L299">
+        <v>31</v>
+      </c>
       <c r="T299" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A300" t="str">
+      <c r="A300">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B300" t="s">
+        <v>218</v>
+      </c>
+      <c r="C300" t="s">
+        <v>53</v>
+      </c>
+      <c r="D300" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" t="s">
+        <v>21</v>
+      </c>
+      <c r="F300" t="s">
+        <v>49</v>
+      </c>
+      <c r="G300" t="s">
+        <v>71</v>
       </c>
       <c r="H300">
         <v>1</v>
@@ -39687,15 +39826,42 @@
       <c r="I300" t="s">
         <v>242</v>
       </c>
+      <c r="J300" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L300">
+        <v>31</v>
+      </c>
       <c r="T300" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A301" t="str">
+      <c r="A301">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B301" t="s">
+        <v>218</v>
+      </c>
+      <c r="C301" t="s">
+        <v>53</v>
+      </c>
+      <c r="D301" t="s">
+        <v>23</v>
+      </c>
+      <c r="E301" t="s">
+        <v>21</v>
+      </c>
+      <c r="F301" t="s">
+        <v>49</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -39703,15 +39869,42 @@
       <c r="I301" t="s">
         <v>242</v>
       </c>
+      <c r="J301" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L301">
+        <v>33</v>
+      </c>
       <c r="T301" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="302" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A302" t="str">
+      <c r="A302">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B302" t="s">
+        <v>218</v>
+      </c>
+      <c r="C302" t="s">
+        <v>53</v>
+      </c>
+      <c r="D302" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" t="s">
+        <v>21</v>
+      </c>
+      <c r="F302" t="s">
+        <v>49</v>
+      </c>
+      <c r="G302" t="s">
+        <v>71</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -39719,15 +39912,42 @@
       <c r="I302" t="s">
         <v>242</v>
       </c>
+      <c r="J302" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L302">
+        <v>31</v>
+      </c>
       <c r="T302" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A303" t="str">
+      <c r="A303">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B303" t="s">
+        <v>218</v>
+      </c>
+      <c r="C303" t="s">
+        <v>53</v>
+      </c>
+      <c r="D303" t="s">
+        <v>23</v>
+      </c>
+      <c r="E303" t="s">
+        <v>21</v>
+      </c>
+      <c r="F303" t="s">
+        <v>49</v>
+      </c>
+      <c r="G303" t="s">
+        <v>71</v>
       </c>
       <c r="H303">
         <v>1</v>
@@ -39735,15 +39955,42 @@
       <c r="I303" t="s">
         <v>242</v>
       </c>
+      <c r="J303" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L303">
+        <v>13</v>
+      </c>
       <c r="T303" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A304" t="str">
+      <c r="A304">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B304" t="s">
+        <v>218</v>
+      </c>
+      <c r="C304" t="s">
+        <v>53</v>
+      </c>
+      <c r="D304" t="s">
+        <v>23</v>
+      </c>
+      <c r="E304" t="s">
+        <v>21</v>
+      </c>
+      <c r="F304" t="s">
+        <v>49</v>
+      </c>
+      <c r="G304" t="s">
+        <v>71</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -39751,15 +39998,45 @@
       <c r="I304" t="s">
         <v>242</v>
       </c>
+      <c r="J304" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L304">
+        <v>46</v>
+      </c>
+      <c r="N304">
+        <v>56</v>
+      </c>
       <c r="T304" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A305" t="str">
+      <c r="A305">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B305" t="s">
+        <v>218</v>
+      </c>
+      <c r="C305" t="s">
+        <v>54</v>
+      </c>
+      <c r="D305" t="s">
+        <v>23</v>
+      </c>
+      <c r="E305" t="s">
+        <v>26</v>
+      </c>
+      <c r="F305" t="s">
+        <v>49</v>
+      </c>
+      <c r="G305" t="s">
+        <v>71</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -39767,15 +40044,42 @@
       <c r="I305" t="s">
         <v>242</v>
       </c>
+      <c r="J305" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L305">
+        <v>27</v>
+      </c>
       <c r="T305" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A306" t="str">
+      <c r="A306">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B306" t="s">
+        <v>218</v>
+      </c>
+      <c r="C306" t="s">
+        <v>54</v>
+      </c>
+      <c r="D306" t="s">
+        <v>23</v>
+      </c>
+      <c r="E306" t="s">
+        <v>26</v>
+      </c>
+      <c r="F306" t="s">
+        <v>49</v>
+      </c>
+      <c r="G306" t="s">
+        <v>71</v>
       </c>
       <c r="H306">
         <v>1</v>
@@ -39783,27 +40087,36 @@
       <c r="I306" t="s">
         <v>242</v>
       </c>
+      <c r="J306" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K306" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L306">
+        <v>27</v>
+      </c>
       <c r="T306" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B307" t="s">
         <v>218</v>
       </c>
       <c r="C307" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D307" t="s">
         <v>23</v>
       </c>
       <c r="E307" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F307" t="s">
         <v>49</v>
@@ -39817,9 +40130,18 @@
       <c r="I307" t="s">
         <v>242</v>
       </c>
+      <c r="J307" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L307">
+        <v>27</v>
+      </c>
       <c r="T307" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.3">
@@ -39851,6 +40173,15 @@
       <c r="I308" t="s">
         <v>242</v>
       </c>
+      <c r="J308" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L308">
+        <v>27</v>
+      </c>
       <c r="T308" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム吹上仁悟ICONIC</v>
@@ -39859,22 +40190,22 @@
     <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B309" t="s">
         <v>218</v>
       </c>
       <c r="C309" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D309" t="s">
         <v>23</v>
       </c>
       <c r="E309" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F309" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G309" t="s">
         <v>71</v>
@@ -39885,24 +40216,33 @@
       <c r="I309" t="s">
         <v>242</v>
       </c>
+      <c r="J309" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L309">
+        <v>14</v>
+      </c>
       <c r="T309" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B310" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C310" t="s">
         <v>30</v>
       </c>
       <c r="D310" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E310" t="s">
         <v>31</v>
@@ -39919,27 +40259,36 @@
       <c r="I310" t="s">
         <v>242</v>
       </c>
+      <c r="J310" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L310">
+        <v>29</v>
+      </c>
       <c r="T310" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B311" t="s">
         <v>218</v>
       </c>
       <c r="C311" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E311" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F311" t="s">
         <v>20</v>
@@ -39953,27 +40302,36 @@
       <c r="I311" t="s">
         <v>242</v>
       </c>
+      <c r="J311" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L311">
+        <v>29</v>
+      </c>
       <c r="T311" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B312" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C312" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D312" t="s">
         <v>23</v>
       </c>
       <c r="E312" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F312" t="s">
         <v>20</v>
@@ -39987,27 +40345,36 @@
       <c r="I312" t="s">
         <v>242</v>
       </c>
+      <c r="J312" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L312">
+        <v>29</v>
+      </c>
       <c r="T312" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B313" t="s">
         <v>218</v>
       </c>
       <c r="C313" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E313" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F313" t="s">
         <v>20</v>
@@ -40021,27 +40388,36 @@
       <c r="I313" t="s">
         <v>242</v>
       </c>
+      <c r="J313" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L313">
+        <v>29</v>
+      </c>
       <c r="T313" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B314" t="s">
         <v>218</v>
       </c>
       <c r="C314" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E314" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F314" t="s">
         <v>20</v>
@@ -40055,27 +40431,36 @@
       <c r="I314" t="s">
         <v>242</v>
       </c>
+      <c r="J314" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L314">
+        <v>29</v>
+      </c>
       <c r="T314" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B315" t="s">
         <v>218</v>
       </c>
       <c r="C315" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D315" t="s">
         <v>23</v>
       </c>
       <c r="E315" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F315" t="s">
         <v>20</v>
@@ -40089,27 +40474,36 @@
       <c r="I315" t="s">
         <v>242</v>
       </c>
+      <c r="J315" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L315">
+        <v>13</v>
+      </c>
       <c r="T315" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B316" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C316" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D316" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E316" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F316" t="s">
         <v>20</v>
@@ -40123,27 +40517,36 @@
       <c r="I316" t="s">
         <v>242</v>
       </c>
+      <c r="J316" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L316">
+        <v>29</v>
+      </c>
       <c r="T316" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B317" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C317" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D317" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E317" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F317" t="s">
         <v>20</v>
@@ -40157,27 +40560,36 @@
       <c r="I317" t="s">
         <v>242</v>
       </c>
+      <c r="J317" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L317">
+        <v>29</v>
+      </c>
       <c r="T317" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318">
         <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B318" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C318" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D318" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E318" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F318" t="s">
         <v>20</v>
@@ -40191,7 +40603,689 @@
       <c r="I318" t="s">
         <v>242</v>
       </c>
+      <c r="J318" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L318">
+        <v>29</v>
+      </c>
       <c r="T318" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B319" t="s">
+        <v>118</v>
+      </c>
+      <c r="C319" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319" t="s">
+        <v>24</v>
+      </c>
+      <c r="E319" t="s">
+        <v>31</v>
+      </c>
+      <c r="F319" t="s">
+        <v>20</v>
+      </c>
+      <c r="G319" t="s">
+        <v>71</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319" t="s">
+        <v>242</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L319">
+        <v>29</v>
+      </c>
+      <c r="T319" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B320" t="s">
+        <v>118</v>
+      </c>
+      <c r="C320" t="s">
+        <v>30</v>
+      </c>
+      <c r="D320" t="s">
+        <v>24</v>
+      </c>
+      <c r="E320" t="s">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>20</v>
+      </c>
+      <c r="G320" t="s">
+        <v>71</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320" t="s">
+        <v>242</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L320">
+        <v>29</v>
+      </c>
+      <c r="T320" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B321" t="s">
+        <v>118</v>
+      </c>
+      <c r="C321" t="s">
+        <v>30</v>
+      </c>
+      <c r="D321" t="s">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
+        <v>31</v>
+      </c>
+      <c r="F321" t="s">
+        <v>20</v>
+      </c>
+      <c r="G321" t="s">
+        <v>71</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321" t="s">
+        <v>242</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L321">
+        <v>13</v>
+      </c>
+      <c r="T321" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A322" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322" t="s">
+        <v>242</v>
+      </c>
+      <c r="T322" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A323" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323" t="s">
+        <v>242</v>
+      </c>
+      <c r="T323" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A324" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324" t="s">
+        <v>242</v>
+      </c>
+      <c r="T324" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A325" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325" t="s">
+        <v>242</v>
+      </c>
+      <c r="T325" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A326" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
+        <v>242</v>
+      </c>
+      <c r="T326" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A327" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327" t="s">
+        <v>242</v>
+      </c>
+      <c r="T327" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A328" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328" t="s">
+        <v>242</v>
+      </c>
+      <c r="T328" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A329" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329" t="s">
+        <v>242</v>
+      </c>
+      <c r="T329" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A330" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330" t="s">
+        <v>242</v>
+      </c>
+      <c r="T330" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A331" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331" t="s">
+        <v>242</v>
+      </c>
+      <c r="T331" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A332" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
+        <v>242</v>
+      </c>
+      <c r="T332" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A333" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
+        <v>242</v>
+      </c>
+      <c r="T333" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A334" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334" t="s">
+        <v>242</v>
+      </c>
+      <c r="T334" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A335" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335" t="s">
+        <v>242</v>
+      </c>
+      <c r="T335" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A336" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336" t="s">
+        <v>242</v>
+      </c>
+      <c r="T336" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A337" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337" t="s">
+        <v>242</v>
+      </c>
+      <c r="T337" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A338" t="str">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
+        <v>242</v>
+      </c>
+      <c r="T338" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="B339" t="s">
+        <v>218</v>
+      </c>
+      <c r="C339" t="s">
+        <v>32</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" t="s">
+        <v>25</v>
+      </c>
+      <c r="F339" t="s">
+        <v>20</v>
+      </c>
+      <c r="G339" t="s">
+        <v>71</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339" t="s">
+        <v>242</v>
+      </c>
+      <c r="T339" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="B340" t="s">
+        <v>118</v>
+      </c>
+      <c r="C340" t="s">
+        <v>32</v>
+      </c>
+      <c r="D340" t="s">
+        <v>23</v>
+      </c>
+      <c r="E340" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340" t="s">
+        <v>20</v>
+      </c>
+      <c r="G340" t="s">
+        <v>71</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340" t="s">
+        <v>242</v>
+      </c>
+      <c r="T340" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>プール掃除岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="B341" t="s">
+        <v>218</v>
+      </c>
+      <c r="C341" t="s">
+        <v>33</v>
+      </c>
+      <c r="D341" t="s">
+        <v>24</v>
+      </c>
+      <c r="E341" t="s">
+        <v>26</v>
+      </c>
+      <c r="F341" t="s">
+        <v>20</v>
+      </c>
+      <c r="G341" t="s">
+        <v>71</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
+        <v>242</v>
+      </c>
+      <c r="T341" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B342" t="s">
+        <v>218</v>
+      </c>
+      <c r="C342" t="s">
+        <v>34</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" t="s">
+        <v>20</v>
+      </c>
+      <c r="G342" t="s">
+        <v>71</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342" t="s">
+        <v>242</v>
+      </c>
+      <c r="T342" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B343" t="s">
+        <v>218</v>
+      </c>
+      <c r="C343" t="s">
+        <v>35</v>
+      </c>
+      <c r="D343" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343" t="s">
+        <v>20</v>
+      </c>
+      <c r="G343" t="s">
+        <v>71</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343" t="s">
+        <v>242</v>
+      </c>
+      <c r="T343" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B344" t="s">
+        <v>218</v>
+      </c>
+      <c r="C344" t="s">
+        <v>36</v>
+      </c>
+      <c r="D344" t="s">
+        <v>23</v>
+      </c>
+      <c r="E344" t="s">
+        <v>21</v>
+      </c>
+      <c r="F344" t="s">
+        <v>20</v>
+      </c>
+      <c r="G344" t="s">
+        <v>71</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344" t="s">
+        <v>242</v>
+      </c>
+      <c r="T344" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B345" t="s">
+        <v>218</v>
+      </c>
+      <c r="C345" t="s">
+        <v>37</v>
+      </c>
+      <c r="D345" t="s">
+        <v>23</v>
+      </c>
+      <c r="E345" t="s">
+        <v>26</v>
+      </c>
+      <c r="F345" t="s">
+        <v>20</v>
+      </c>
+      <c r="G345" t="s">
+        <v>71</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345" t="s">
+        <v>242</v>
+      </c>
+      <c r="T345" t="str">
+        <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <f>VLOOKUP(Receive[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B346" t="s">
+        <v>218</v>
+      </c>
+      <c r="C346" t="s">
+        <v>38</v>
+      </c>
+      <c r="D346" t="s">
+        <v>23</v>
+      </c>
+      <c r="E346" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346" t="s">
+        <v>20</v>
+      </c>
+      <c r="G346" t="s">
+        <v>71</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346" t="s">
+        <v>242</v>
+      </c>
+      <c r="T346" t="str">
         <f>Receive[[#This Row],[服装]]&amp;Receive[[#This Row],[名前]]&amp;Receive[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -40207,10 +41301,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E63DB18-D480-4A69-8DB6-8F594AED2FB2}">
-  <dimension ref="A1:T160"/>
+  <dimension ref="A1:T172"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154:G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46540,9 +47634,27 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A145" t="str">
+      <c r="A145">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B145" t="s">
+        <v>218</v>
+      </c>
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>49</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -46550,15 +47662,42 @@
       <c r="I145" t="s">
         <v>245</v>
       </c>
+      <c r="J145" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L145">
+        <v>31</v>
+      </c>
       <c r="T145" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A146" t="str">
+      <c r="A146">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B146" t="s">
+        <v>218</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" t="s">
+        <v>49</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -46566,15 +47705,42 @@
       <c r="I146" t="s">
         <v>245</v>
       </c>
+      <c r="J146" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L146">
+        <v>25</v>
+      </c>
       <c r="T146" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A147" t="str">
+      <c r="A147">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B147" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" t="s">
+        <v>49</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -46582,15 +47748,42 @@
       <c r="I147" t="s">
         <v>245</v>
       </c>
+      <c r="J147" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L147">
+        <v>25</v>
+      </c>
       <c r="T147" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A148" t="str">
+      <c r="A148">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B148" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -46598,30 +47791,39 @@
       <c r="I148" t="s">
         <v>245</v>
       </c>
+      <c r="J148" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L148">
+        <v>33</v>
+      </c>
       <c r="T148" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B149" t="s">
         <v>218</v>
       </c>
       <c r="C149" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
       </c>
       <c r="E149" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G149" t="s">
         <v>71</v>
@@ -46632,30 +47834,39 @@
       <c r="I149" t="s">
         <v>245</v>
       </c>
+      <c r="J149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L149">
+        <v>33</v>
+      </c>
       <c r="T149" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
         <v>218</v>
       </c>
       <c r="C150" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G150" t="s">
         <v>71</v>
@@ -46666,9 +47877,18 @@
       <c r="I150" t="s">
         <v>245</v>
       </c>
+      <c r="J150" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L150">
+        <v>33</v>
+      </c>
       <c r="T150" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
@@ -46700,6 +47920,15 @@
       <c r="I151" t="s">
         <v>245</v>
       </c>
+      <c r="J151" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L151">
+        <v>33</v>
+      </c>
       <c r="T151" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム及川徹ICONIC</v>
@@ -46708,16 +47937,16 @@
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B152" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C152" t="s">
         <v>30</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E152" t="s">
         <v>31</v>
@@ -46734,27 +47963,36 @@
       <c r="I152" t="s">
         <v>245</v>
       </c>
+      <c r="J152" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L152">
+        <v>33</v>
+      </c>
       <c r="T152" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
         <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
         <v>20</v>
@@ -46768,27 +48006,36 @@
       <c r="I153" t="s">
         <v>245</v>
       </c>
+      <c r="J153" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L153">
+        <v>42</v>
+      </c>
       <c r="T153" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
         <v>118</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
@@ -46802,27 +48049,36 @@
       <c r="I154" t="s">
         <v>245</v>
       </c>
+      <c r="J154" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L154">
+        <v>33</v>
+      </c>
       <c r="T154" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D155" t="s">
         <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
@@ -46836,27 +48092,36 @@
       <c r="I155" t="s">
         <v>245</v>
       </c>
+      <c r="J155" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L155">
+        <v>33</v>
+      </c>
       <c r="T155" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
         <v>20</v>
@@ -46870,27 +48135,36 @@
       <c r="I156" t="s">
         <v>245</v>
       </c>
+      <c r="J156" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L156">
+        <v>33</v>
+      </c>
       <c r="T156" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F157" t="s">
         <v>20</v>
@@ -46904,27 +48178,36 @@
       <c r="I157" t="s">
         <v>245</v>
       </c>
+      <c r="J157" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L157">
+        <v>33</v>
+      </c>
       <c r="T157" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E158" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
         <v>20</v>
@@ -46938,27 +48221,36 @@
       <c r="I158" t="s">
         <v>245</v>
       </c>
+      <c r="J158" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L158">
+        <v>39</v>
+      </c>
       <c r="T158" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E159" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
         <v>20</v>
@@ -46972,27 +48264,36 @@
       <c r="I159" t="s">
         <v>245</v>
       </c>
+      <c r="J159" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L159">
+        <v>42</v>
+      </c>
       <c r="T159" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160">
         <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F160" t="s">
         <v>20</v>
@@ -47006,7 +48307,388 @@
       <c r="I160" t="s">
         <v>245</v>
       </c>
+      <c r="J160" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L160">
+        <v>51</v>
+      </c>
+      <c r="N160">
+        <v>61</v>
+      </c>
       <c r="T160" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="B161" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161" t="s">
+        <v>245</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L161">
+        <v>51</v>
+      </c>
+      <c r="N161">
+        <v>61</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="T161" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A162" t="str">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" t="s">
+        <v>245</v>
+      </c>
+      <c r="T162" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A163" t="str">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>245</v>
+      </c>
+      <c r="T163" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A164" t="str">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>245</v>
+      </c>
+      <c r="T164" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="B165" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>245</v>
+      </c>
+      <c r="T165" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="B166" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>71</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>245</v>
+      </c>
+      <c r="T166" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>プール掃除岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" t="s">
+        <v>245</v>
+      </c>
+      <c r="T167" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" t="s">
+        <v>245</v>
+      </c>
+      <c r="T168" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B169" t="s">
+        <v>218</v>
+      </c>
+      <c r="C169" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>71</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" t="s">
+        <v>245</v>
+      </c>
+      <c r="T169" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>218</v>
+      </c>
+      <c r="C170" t="s">
+        <v>36</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" t="s">
+        <v>20</v>
+      </c>
+      <c r="G170" t="s">
+        <v>71</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>245</v>
+      </c>
+      <c r="T170" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B171" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" t="s">
+        <v>37</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" t="s">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" t="s">
+        <v>245</v>
+      </c>
+      <c r="T171" t="str">
+        <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f>VLOOKUP(Toss[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" t="s">
+        <v>38</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" t="s">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" t="s">
+        <v>245</v>
+      </c>
+      <c r="T172" t="str">
         <f>Toss[[#This Row],[服装]]&amp;Toss[[#This Row],[名前]]&amp;Toss[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -47022,10 +48704,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81834FA-1C0F-4064-B538-E1E9F96DE39E}">
-  <dimension ref="A1:T222"/>
+  <dimension ref="A1:T233"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203:G206"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="M226" sqref="M226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56019,9 +57701,27 @@
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A207" t="str">
+      <c r="A207">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B207" t="s">
+        <v>218</v>
+      </c>
+      <c r="C207" t="s">
+        <v>53</v>
+      </c>
+      <c r="D207" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" t="s">
+        <v>49</v>
+      </c>
+      <c r="G207" t="s">
+        <v>71</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -56031,13 +57731,31 @@
       </c>
       <c r="T207" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A208" t="str">
+      <c r="A208">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B208" t="s">
+        <v>218</v>
+      </c>
+      <c r="C208" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" t="s">
+        <v>49</v>
+      </c>
+      <c r="G208" t="s">
+        <v>71</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -56045,15 +57763,42 @@
       <c r="I208" t="s">
         <v>248</v>
       </c>
+      <c r="J208" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L208">
+        <v>27</v>
+      </c>
       <c r="T208" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A209" t="str">
+      <c r="A209">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B209" t="s">
+        <v>218</v>
+      </c>
+      <c r="C209" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" t="s">
+        <v>26</v>
+      </c>
+      <c r="F209" t="s">
+        <v>49</v>
+      </c>
+      <c r="G209" t="s">
+        <v>71</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -56061,15 +57806,42 @@
       <c r="I209" t="s">
         <v>248</v>
       </c>
+      <c r="J209" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L209">
+        <v>25</v>
+      </c>
       <c r="T209" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A210" t="str">
+      <c r="A210">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B210" t="s">
+        <v>218</v>
+      </c>
+      <c r="C210" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" t="s">
+        <v>26</v>
+      </c>
+      <c r="F210" t="s">
+        <v>49</v>
+      </c>
+      <c r="G210" t="s">
+        <v>71</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -56077,30 +57849,39 @@
       <c r="I210" t="s">
         <v>248</v>
       </c>
+      <c r="J210" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L210">
+        <v>25</v>
+      </c>
       <c r="T210" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
         <v>218</v>
       </c>
       <c r="C211" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
       </c>
       <c r="E211" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F211" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G211" t="s">
         <v>71</v>
@@ -56111,30 +57892,39 @@
       <c r="I211" t="s">
         <v>248</v>
       </c>
+      <c r="J211" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L211">
+        <v>33</v>
+      </c>
       <c r="T211" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
         <v>218</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D212" t="s">
         <v>23</v>
       </c>
       <c r="E212" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G212" t="s">
         <v>71</v>
@@ -56145,9 +57935,18 @@
       <c r="I212" t="s">
         <v>248</v>
       </c>
+      <c r="J212" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L212">
+        <v>33</v>
+      </c>
       <c r="T212" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
@@ -56179,6 +57978,15 @@
       <c r="I213" t="s">
         <v>248</v>
       </c>
+      <c r="J213" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L213">
+        <v>33</v>
+      </c>
       <c r="T213" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム及川徹ICONIC</v>
@@ -56187,16 +57995,16 @@
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B214" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C214" t="s">
         <v>30</v>
       </c>
       <c r="D214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E214" t="s">
         <v>31</v>
@@ -56213,27 +58021,36 @@
       <c r="I214" t="s">
         <v>248</v>
       </c>
+      <c r="J214" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L214">
+        <v>33</v>
+      </c>
       <c r="T214" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F215" t="s">
         <v>20</v>
@@ -56247,27 +58064,36 @@
       <c r="I215" t="s">
         <v>248</v>
       </c>
+      <c r="J215" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L215">
+        <v>33</v>
+      </c>
       <c r="T215" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B216" t="s">
         <v>118</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E216" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F216" t="s">
         <v>20</v>
@@ -56281,27 +58107,36 @@
       <c r="I216" t="s">
         <v>248</v>
       </c>
+      <c r="J216" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L216">
+        <v>33</v>
+      </c>
       <c r="T216" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D217" t="s">
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
         <v>20</v>
@@ -56315,27 +58150,36 @@
       <c r="I217" t="s">
         <v>248</v>
       </c>
+      <c r="J217" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L217">
+        <v>33</v>
+      </c>
       <c r="T217" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F218" t="s">
         <v>20</v>
@@ -56349,143 +58193,400 @@
       <c r="I218" t="s">
         <v>248</v>
       </c>
+      <c r="J218" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L218">
+        <v>33</v>
+      </c>
       <c r="T218" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>プール掃除及川徹ICONIC</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A219" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219" t="s">
+        <v>248</v>
+      </c>
+      <c r="T219" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A220" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
+        <v>248</v>
+      </c>
+      <c r="T220" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A221" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
+        <v>248</v>
+      </c>
+      <c r="T221" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A222" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222" t="s">
+        <v>248</v>
+      </c>
+      <c r="T222" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A223" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223" t="s">
+        <v>248</v>
+      </c>
+      <c r="T223" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A224" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224" t="s">
+        <v>248</v>
+      </c>
+      <c r="T224" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A225" t="str">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v/>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225" t="s">
+        <v>248</v>
+      </c>
+      <c r="T225" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="B226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C226" t="s">
+        <v>32</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+      <c r="F226" t="s">
+        <v>20</v>
+      </c>
+      <c r="G226" t="s">
+        <v>71</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
+        <v>248</v>
+      </c>
+      <c r="T226" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="B227" t="s">
+        <v>118</v>
+      </c>
+      <c r="C227" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" t="s">
+        <v>23</v>
+      </c>
+      <c r="E227" t="s">
+        <v>25</v>
+      </c>
+      <c r="F227" t="s">
+        <v>20</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>248</v>
+      </c>
+      <c r="T227" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>プール掃除岩泉一ICONIC</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="B228" t="s">
+        <v>218</v>
+      </c>
+      <c r="C228" t="s">
+        <v>33</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" t="s">
+        <v>26</v>
+      </c>
+      <c r="F228" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" t="s">
+        <v>71</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228" t="s">
+        <v>248</v>
+      </c>
+      <c r="T228" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B229" t="s">
+        <v>218</v>
+      </c>
+      <c r="C229" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" t="s">
+        <v>25</v>
+      </c>
+      <c r="F229" t="s">
+        <v>20</v>
+      </c>
+      <c r="G229" t="s">
+        <v>71</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229" t="s">
+        <v>248</v>
+      </c>
+      <c r="T229" t="str">
+        <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム京谷賢太郎ICONIC</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A219">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A230">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>58</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B230" t="s">
         <v>218</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C230" t="s">
         <v>35</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D230" t="s">
         <v>23</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E230" t="s">
         <v>25</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F230" t="s">
         <v>20</v>
       </c>
-      <c r="G219" t="s">
-        <v>71</v>
-      </c>
-      <c r="H219">
-        <v>1</v>
-      </c>
-      <c r="I219" t="s">
+      <c r="G230" t="s">
+        <v>71</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
         <v>248</v>
       </c>
-      <c r="T219" t="str">
+      <c r="T230" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム国見英ICONIC</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A220">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A231">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>59</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B231" t="s">
         <v>218</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C231" t="s">
         <v>36</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D231" t="s">
         <v>23</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E231" t="s">
         <v>21</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F231" t="s">
         <v>20</v>
       </c>
-      <c r="G220" t="s">
-        <v>71</v>
-      </c>
-      <c r="H220">
-        <v>1</v>
-      </c>
-      <c r="I220" t="s">
+      <c r="G231" t="s">
+        <v>71</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
         <v>248</v>
       </c>
-      <c r="T220" t="str">
+      <c r="T231" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム渡親治ICONIC</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A232">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B232" t="s">
         <v>218</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C232" t="s">
         <v>37</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D232" t="s">
         <v>23</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E232" t="s">
         <v>26</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F232" t="s">
         <v>20</v>
       </c>
-      <c r="G221" t="s">
-        <v>71</v>
-      </c>
-      <c r="H221">
-        <v>1</v>
-      </c>
-      <c r="I221" t="s">
+      <c r="G232" t="s">
+        <v>71</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232" t="s">
         <v>248</v>
       </c>
-      <c r="T221" t="str">
+      <c r="T232" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム松川一静ICONIC</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A222">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A233">
         <f>VLOOKUP(Attack[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
         <v>61</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B233" t="s">
         <v>218</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C233" t="s">
         <v>38</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D233" t="s">
         <v>23</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E233" t="s">
         <v>25</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F233" t="s">
         <v>20</v>
       </c>
-      <c r="G222" t="s">
-        <v>71</v>
-      </c>
-      <c r="H222">
-        <v>1</v>
-      </c>
-      <c r="I222" t="s">
+      <c r="G233" t="s">
+        <v>71</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233" t="s">
         <v>248</v>
       </c>
-      <c r="T222" t="str">
+      <c r="T233" t="str">
         <f>Attack[[#This Row],[服装]]&amp;Attack[[#This Row],[名前]]&amp;Attack[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -56501,10 +58602,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6570FE42-5873-4E17-8625-5C59F305B378}">
-  <dimension ref="A1:T208"/>
+  <dimension ref="A1:T213"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185:G187"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198:G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64635,9 +66736,27 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A188" t="str">
+      <c r="A188">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B188" t="s">
+        <v>218</v>
+      </c>
+      <c r="C188" t="s">
+        <v>53</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" t="s">
+        <v>49</v>
+      </c>
+      <c r="G188" t="s">
+        <v>71</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -64647,13 +66766,31 @@
       </c>
       <c r="T188" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A189" t="str">
+      <c r="A189">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B189" t="s">
+        <v>218</v>
+      </c>
+      <c r="C189" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" t="s">
+        <v>49</v>
+      </c>
+      <c r="G189" t="s">
+        <v>71</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -64661,15 +66798,42 @@
       <c r="I189" t="s">
         <v>262</v>
       </c>
+      <c r="J189" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L189">
+        <v>36</v>
+      </c>
       <c r="T189" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A190" t="str">
+      <c r="A190">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B190" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190" t="s">
+        <v>54</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" t="s">
+        <v>26</v>
+      </c>
+      <c r="F190" t="s">
+        <v>49</v>
+      </c>
+      <c r="G190" t="s">
+        <v>71</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -64677,15 +66841,42 @@
       <c r="I190" t="s">
         <v>262</v>
       </c>
+      <c r="J190" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L190">
+        <v>36</v>
+      </c>
       <c r="T190" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A191" t="str">
+      <c r="A191">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B191" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" t="s">
+        <v>26</v>
+      </c>
+      <c r="F191" t="s">
+        <v>49</v>
+      </c>
+      <c r="G191" t="s">
+        <v>71</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -64693,15 +66884,42 @@
       <c r="I191" t="s">
         <v>262</v>
       </c>
+      <c r="J191" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L191">
+        <v>36</v>
+      </c>
       <c r="T191" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A192" t="str">
+      <c r="A192">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B192" t="s">
+        <v>218</v>
+      </c>
+      <c r="C192" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" t="s">
+        <v>26</v>
+      </c>
+      <c r="F192" t="s">
+        <v>49</v>
+      </c>
+      <c r="G192" t="s">
+        <v>71</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -64709,15 +66927,42 @@
       <c r="I192" t="s">
         <v>262</v>
       </c>
+      <c r="J192" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L192">
+        <v>33</v>
+      </c>
       <c r="T192" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A193" t="str">
+      <c r="A193">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B193" t="s">
+        <v>218</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" t="s">
+        <v>49</v>
+      </c>
+      <c r="G193" t="s">
+        <v>71</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -64725,15 +66970,42 @@
       <c r="I193" t="s">
         <v>262</v>
       </c>
+      <c r="J193" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L193">
+        <v>33</v>
+      </c>
       <c r="T193" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A194" t="str">
+      <c r="A194">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" t="s">
+        <v>49</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -64741,15 +67013,45 @@
       <c r="I194" t="s">
         <v>262</v>
       </c>
+      <c r="J194" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="L194">
+        <v>44</v>
+      </c>
+      <c r="N194">
+        <v>54</v>
+      </c>
       <c r="T194" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A195" t="str">
+      <c r="A195">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B195" t="s">
+        <v>218</v>
+      </c>
+      <c r="C195" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" t="s">
+        <v>31</v>
+      </c>
+      <c r="F195" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>71</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -64757,15 +67059,42 @@
       <c r="I195" t="s">
         <v>262</v>
       </c>
+      <c r="J195" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L195">
+        <v>28</v>
+      </c>
       <c r="T195" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A196" t="str">
+      <c r="A196">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B196" t="s">
+        <v>218</v>
+      </c>
+      <c r="C196" t="s">
+        <v>30</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" t="s">
+        <v>31</v>
+      </c>
+      <c r="F196" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -64773,30 +67102,39 @@
       <c r="I196" t="s">
         <v>262</v>
       </c>
+      <c r="J196" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L196">
+        <v>28</v>
+      </c>
       <c r="T196" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B197" t="s">
         <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
       </c>
       <c r="E197" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G197" t="s">
         <v>71</v>
@@ -64807,30 +67145,39 @@
       <c r="I197" t="s">
         <v>262</v>
       </c>
+      <c r="J197" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L197">
+        <v>27</v>
+      </c>
       <c r="T197" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E198" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G198" t="s">
         <v>71</v>
@@ -64841,24 +67188,33 @@
       <c r="I198" t="s">
         <v>262</v>
       </c>
+      <c r="J198" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L198">
+        <v>28</v>
+      </c>
       <c r="T198" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C199" t="s">
         <v>30</v>
       </c>
       <c r="D199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E199" t="s">
         <v>31</v>
@@ -64875,9 +67231,18 @@
       <c r="I199" t="s">
         <v>262</v>
       </c>
+      <c r="J199" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L199">
+        <v>28</v>
+      </c>
       <c r="T199" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
@@ -64909,33 +67274,24 @@
       <c r="I200" t="s">
         <v>262</v>
       </c>
+      <c r="J200" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L200">
+        <v>27</v>
+      </c>
       <c r="T200" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="B201" t="s">
-        <v>218</v>
-      </c>
-      <c r="C201" t="s">
-        <v>32</v>
-      </c>
-      <c r="D201" t="s">
-        <v>28</v>
-      </c>
-      <c r="E201" t="s">
-        <v>25</v>
-      </c>
-      <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H201">
         <v>1</v>
@@ -64945,31 +67301,13 @@
       </c>
       <c r="T201" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="B202" t="s">
-        <v>118</v>
-      </c>
-      <c r="C202" t="s">
-        <v>32</v>
-      </c>
-      <c r="D202" t="s">
-        <v>23</v>
-      </c>
-      <c r="E202" t="s">
-        <v>25</v>
-      </c>
-      <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H202">
         <v>1</v>
@@ -64979,31 +67317,13 @@
       </c>
       <c r="T202" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
-      </c>
-      <c r="B203" t="s">
-        <v>218</v>
-      </c>
-      <c r="C203" t="s">
-        <v>33</v>
-      </c>
-      <c r="D203" t="s">
-        <v>24</v>
-      </c>
-      <c r="E203" t="s">
-        <v>26</v>
-      </c>
-      <c r="F203" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H203">
         <v>1</v>
@@ -65013,31 +67333,13 @@
       </c>
       <c r="T203" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
-      </c>
-      <c r="B204" t="s">
-        <v>218</v>
-      </c>
-      <c r="C204" t="s">
-        <v>34</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" t="s">
-        <v>25</v>
-      </c>
-      <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H204">
         <v>1</v>
@@ -65047,31 +67349,13 @@
       </c>
       <c r="T204" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" t="str">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
-      </c>
-      <c r="B205" t="s">
-        <v>218</v>
-      </c>
-      <c r="C205" t="s">
-        <v>35</v>
-      </c>
-      <c r="D205" t="s">
-        <v>23</v>
-      </c>
-      <c r="E205" t="s">
-        <v>25</v>
-      </c>
-      <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H205">
         <v>1</v>
@@ -65081,25 +67365,25 @@
       </c>
       <c r="T205" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B206" t="s">
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D206" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E206" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F206" t="s">
         <v>20</v>
@@ -65115,25 +67399,25 @@
       </c>
       <c r="T206" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>ユニフォーム岩泉一ICONIC</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B207" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C207" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D207" t="s">
         <v>23</v>
       </c>
       <c r="E207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F207" t="s">
         <v>20</v>
@@ -65149,25 +67433,25 @@
       </c>
       <c r="T207" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>プール掃除岩泉一ICONIC</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208">
         <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B208" t="s">
         <v>218</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D208" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F208" t="s">
         <v>20</v>
@@ -65182,6 +67466,176 @@
         <v>262</v>
       </c>
       <c r="T208" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B209" t="s">
+        <v>218</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" t="s">
+        <v>71</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209" t="s">
+        <v>262</v>
+      </c>
+      <c r="T209" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B210" t="s">
+        <v>218</v>
+      </c>
+      <c r="C210" t="s">
+        <v>35</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" t="s">
+        <v>25</v>
+      </c>
+      <c r="F210" t="s">
+        <v>20</v>
+      </c>
+      <c r="G210" t="s">
+        <v>71</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210" t="s">
+        <v>262</v>
+      </c>
+      <c r="T210" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+      <c r="C211" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211" t="s">
+        <v>262</v>
+      </c>
+      <c r="T211" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B212" t="s">
+        <v>218</v>
+      </c>
+      <c r="C212" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" t="s">
+        <v>20</v>
+      </c>
+      <c r="G212" t="s">
+        <v>71</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" t="s">
+        <v>262</v>
+      </c>
+      <c r="T212" t="str">
+        <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <f>VLOOKUP(Block[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+      <c r="F213" t="s">
+        <v>20</v>
+      </c>
+      <c r="G213" t="s">
+        <v>71</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213" t="s">
+        <v>262</v>
+      </c>
+      <c r="T213" t="str">
         <f>Block[[#This Row],[服装]]&amp;Block[[#This Row],[名前]]&amp;Block[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
@@ -65197,10 +67651,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4EB787-EFAC-4F5B-9759-C6BCD399BDBD}">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68775,9 +71229,27 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" t="str">
+      <c r="A82">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -68785,15 +71257,42 @@
       <c r="I82" t="s">
         <v>276</v>
       </c>
+      <c r="J82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L82">
+        <v>13</v>
+      </c>
       <c r="T82" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム作並浩輔ICONIC</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" t="str">
+      <c r="A83">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -68801,15 +71300,42 @@
       <c r="I83" t="s">
         <v>276</v>
       </c>
+      <c r="J83" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L83">
+        <v>14</v>
+      </c>
       <c r="T83" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84" t="str">
+      <c r="A84">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -68817,15 +71343,42 @@
       <c r="I84" t="s">
         <v>276</v>
       </c>
+      <c r="J84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L84">
+        <v>40</v>
+      </c>
       <c r="T84" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム吹上仁悟ICONIC</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85" t="str">
+      <c r="A85">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -68833,15 +71386,42 @@
       <c r="I85" t="s">
         <v>276</v>
       </c>
+      <c r="J85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
       <c r="T85" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A86" t="str">
+      <c r="A86">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v/>
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -68849,30 +71429,39 @@
       <c r="I86" t="s">
         <v>276</v>
       </c>
+      <c r="J86" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L86">
+        <v>33</v>
+      </c>
       <c r="T86" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v/>
+        <v>ユニフォーム及川徹ICONIC</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
         <v>71</v>
@@ -68883,30 +71472,39 @@
       <c r="I87" t="s">
         <v>276</v>
       </c>
+      <c r="J87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L87">
+        <v>13</v>
+      </c>
       <c r="T87" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム作並浩輔ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
         <v>71</v>
@@ -68917,24 +71515,33 @@
       <c r="I88" t="s">
         <v>276</v>
       </c>
+      <c r="J88" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L88">
+        <v>33</v>
+      </c>
       <c r="T88" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム吹上仁悟ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
         <v>31</v>
@@ -68951,33 +71558,24 @@
       <c r="I89" t="s">
         <v>276</v>
       </c>
+      <c r="J89" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L89">
+        <v>19</v>
+      </c>
       <c r="T89" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム及川徹ICONIC</v>
+        <v>プール掃除及川徹ICONIC</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="B90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H90">
         <v>1</v>
@@ -68987,31 +71585,13 @@
       </c>
       <c r="T90" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>プール掃除及川徹ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="B91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" t="s">
-        <v>25</v>
-      </c>
-      <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H91">
         <v>1</v>
@@ -69021,31 +71601,13 @@
       </c>
       <c r="T91" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>55</v>
-      </c>
-      <c r="B92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H92">
         <v>1</v>
@@ -69055,31 +71617,13 @@
       </c>
       <c r="T92" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>プール掃除岩泉一ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>56</v>
-      </c>
-      <c r="B93" t="s">
-        <v>218</v>
-      </c>
-      <c r="C93" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H93">
         <v>1</v>
@@ -69089,31 +71633,13 @@
       </c>
       <c r="T93" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム金田一勇太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>57</v>
-      </c>
-      <c r="B94" t="s">
-        <v>218</v>
-      </c>
-      <c r="C94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H94">
         <v>1</v>
@@ -69123,31 +71649,13 @@
       </c>
       <c r="T94" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム京谷賢太郎ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" t="str">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>58</v>
-      </c>
-      <c r="B95" t="s">
-        <v>218</v>
-      </c>
-      <c r="C95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>71</v>
+        <v/>
       </c>
       <c r="H95">
         <v>1</v>
@@ -69157,25 +71665,25 @@
       </c>
       <c r="T95" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム国見英ICONIC</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
         <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -69191,25 +71699,25 @@
       </c>
       <c r="T96" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム渡親治ICONIC</v>
+        <v>ユニフォーム岩泉一ICONIC</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -69225,25 +71733,25 @@
       </c>
       <c r="T97" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
-        <v>ユニフォーム松川一静ICONIC</v>
+        <v>プール掃除岩泉一ICONIC</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
         <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -69258,6 +71766,176 @@
         <v>276</v>
       </c>
       <c r="T98" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム金田一勇太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>276</v>
+      </c>
+      <c r="T99" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム京谷賢太郎ICONIC</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>276</v>
+      </c>
+      <c r="T100" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム国見英ICONIC</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>276</v>
+      </c>
+      <c r="T101" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム渡親治ICONIC</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>276</v>
+      </c>
+      <c r="T102" t="str">
+        <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
+        <v>ユニフォーム松川一静ICONIC</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f>VLOOKUP(Special[[#This Row],[No用]],SetNo[[No.用]:[vlookup 用]],2,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>276</v>
+      </c>
+      <c r="T103" t="str">
         <f>Special[[#This Row],[服装]]&amp;Special[[#This Row],[名前]]&amp;Special[[#This Row],[レアリティ]]</f>
         <v>ユニフォーム花巻貴大ICONIC</v>
       </c>
